--- a/dataset/jfleg_excel/jfleg_rollback/sources.xlsx
+++ b/dataset/jfleg_excel/jfleg_rollback/sources.xlsx
@@ -496,36 +496,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>b_0005</t>
+          <t>a_0005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>And young people spend more time on ther lifestyles.</t>
+          <t>And young people spend more time on ther lifestyles .</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>b_0006</t>
+          <t>a_0006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Students can focus on only a few subjects they are intwerested in and they will become experts in those areas.</t>
+          <t>Students can focus on only a few subjects they are intwerested in and they will become experts in those areas .</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>b_0007</t>
+          <t>a_0007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>He thinks differently than others and he has succeded.</t>
+          <t>He thinks differently than others and he has succeded .</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>b_0015</t>
+          <t>a_0015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>In today's world Compuer skills are the first important life skill.</t>
+          <t>In today 's world Compuer skills are the first important life skill .</t>
         </is>
       </c>
     </row>
@@ -652,12 +652,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>b_0018</t>
+          <t>a_0018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>If there are specialized docters that have done the operation often, he becomes talented in his job.</t>
+          <t>If there are specialized docters that have done the operation often , he becomes talented in his job .</t>
         </is>
       </c>
     </row>
@@ -760,12 +760,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>b_0027</t>
+          <t>a_0027</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Many Scientists obtained clear results of investigations after the facts were on the table, but before they could even begin to theorise about them.</t>
+          <t>Many Scientists obtained clear results of investigations after the facts were on the table , but before they could even begin to theorise about them .</t>
         </is>
       </c>
     </row>
@@ -856,36 +856,36 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>b_0035</t>
+          <t>a_0035</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Futhermore, a tour guide will also provide safety and security for travel, since they already know the dos and don'ts of the tour.</t>
+          <t>Futhermore , a tour guide will also provide safety and security for travel , since they already know the dos and don'ts of the tour .</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>b_0036</t>
+          <t>a_0036</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Which caused her situation to worse.</t>
+          <t>Which caused her situation to worse .</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>b_0037</t>
+          <t>a_0037</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>This arguement is not only true now, it has always been.</t>
+          <t>This arguement is not only true now , it has always been .</t>
         </is>
       </c>
     </row>
@@ -904,24 +904,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>a_0039</t>
+          <t>b_0039</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-Learn !</t>
+          <t>-Learn!</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>b_0040</t>
+          <t>a_0040</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>There are very successful politicians that have never tried somthing new.</t>
+          <t>There are very successful politicians that have never tried somthing new .</t>
         </is>
       </c>
     </row>
@@ -940,12 +940,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>b_0042</t>
+          <t>a_0042</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Maybe at the beginning, but time after timer other animals in the environment will choose them as their new food.</t>
+          <t>Maybe at the beginning , but time after timer other animals in the environment will choose them as their new food .</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1024,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>b_0049</t>
+          <t>a_0049</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>This creates people to fall into pier pressure.</t>
+          <t>This creates people to fall into pier pressure .</t>
         </is>
       </c>
     </row>
@@ -1072,36 +1072,36 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>b_0053</t>
+          <t>a_0053</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>It's very obbvious that more cars will be sold there.</t>
+          <t>It 's very obbvious that more cars will be sold there .</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>b_0054</t>
+          <t>a_0054</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Also, a food chain becomes stronger that it was before, such as rabbits and bears.</t>
+          <t>Also , a food chain becomes stronger that it was before , such as rabbits and bears .</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>a_0055</t>
+          <t>b_0055</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>According to me , in order to start the carrier through its ' success , it`s importand to have a solid base , that means knowledge and experience .</t>
+          <t>According to me, in order to start the carrier through its' success, it`s importand to have a solid base, that means knowledge and experience.</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>b_0058</t>
+          <t>a_0058</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>The bass is not only a predetor for menhaden, so if people catch more bass, the population of other fish will also grow.</t>
+          <t>The bass is not only a predetor for menhaden , so if people catch more bass , the population of other fish will also grow .</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>b_0060</t>
+          <t>a_0060</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Government uses that money for public use and safty.</t>
+          <t>Government uses that money for public use and safty .</t>
         </is>
       </c>
     </row>
@@ -1180,24 +1180,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>a_0062</t>
+          <t>b_0062</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Broad knowledge on may subjects is not possiable to acquire .</t>
+          <t>Broad knowledge on may subjects is not possiable to acquire.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>b_0063</t>
+          <t>a_0063</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>The lecturer went against the authour's insistence for the following reasons.</t>
+          <t>The lecturer went against the authour 's insistence for the following reasons .</t>
         </is>
       </c>
     </row>
@@ -1216,36 +1216,36 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>a_0065</t>
+          <t>b_0065</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>It usually makes them more postive to do it .</t>
+          <t>It usually makes them more postive to do it.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>b_0066</t>
+          <t>a_0066</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>In both advertisements it is said that these toothpastes will make your teeth briliant and brighter.</t>
+          <t>In both advertisements it is said that these tooth pastes will make your teeth briliant and brighter .</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>b_0067</t>
+          <t>a_0067</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>The advertisement says that the car has space for ten people, when the truth is that the car just has space for four people; another example is a skin soap advertisement that says the soap is the best because it will make your skin as soft as a 15 year old princess or as soft as the skin of Jennife Lopez.</t>
+          <t>The advertisement says that the car has space for ten people , when the truth is that the car just has space for four people ; another example is a skin soap advertisement that says the soap is the best because it will make your skin as soft as a 1 5 year old princess or as soft as the skin of Jennife Lopez .</t>
         </is>
       </c>
     </row>
@@ -1264,24 +1264,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>a_0069</t>
+          <t>b_0069</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Actual markets require more specific knowledge that broad knowledge .</t>
+          <t>Actual markets require more specific knowledge that broad knowledge.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>b_0070</t>
+          <t>a_0070</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Only by braking out of your normal life can you discover new perspectives in your job and your private life.</t>
+          <t>Only by braking out of your normal life can you discover new perspectives in your job and your private life .</t>
         </is>
       </c>
     </row>
@@ -1324,12 +1324,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>b_0074</t>
+          <t>a_0074</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>A different passege emphasizes an alternative to prescribed burning that uses the turm "disking," a method that uses fire to clear out dry and dead shrubs, thus stimulating the growth of new plant life.</t>
+          <t>A different passege emphasizes an alternative to prescribed burning that uses the turm " disking , " a method that uses fire to clear out dry and dead shrubs , thus stimulating the growth of new plant life .</t>
         </is>
       </c>
     </row>
@@ -1384,12 +1384,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>b_0079</t>
+          <t>a_0079</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Young people are still trying to obtain experince, while olde people have it already.</t>
+          <t>Young people are still trying to obtain experince , while olde people have it already .</t>
         </is>
       </c>
     </row>
@@ -1408,12 +1408,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>b_0081</t>
+          <t>a_0081</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>They need cars for many things such as trasportation, entertainment, and business.</t>
+          <t>They need cars for many things such as trasportation , entertainment , and business .</t>
         </is>
       </c>
     </row>
@@ -1468,36 +1468,36 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>b_0086</t>
+          <t>a_0086</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>In such a situaction, there is no other way.</t>
+          <t>In such a situaction , there is no other way .</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>b_0087</t>
+          <t>a_0087</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Even the magnitides on Mars are no evidence of life on Mars.</t>
+          <t>Even the magnitides on Mars are no evidence of life on Mars .</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>a_0088</t>
+          <t>b_0088</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>in writting we are nearly unable to express people 's feelings , but via action on TV we can understand these feelings better than from books .</t>
+          <t>in writting we are nearly unable to express people's feelings, but via action on TV we can understand these feelings better than from books.</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>a_0095</t>
+          <t>b_0095</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>In my opinion , if someone thinks one is more important than the other , why not focuse on one ?</t>
+          <t>In my opinion, if someone thinks one is more important than the other, why not focuse on one?</t>
         </is>
       </c>
     </row>
@@ -1600,12 +1600,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>b_0097</t>
+          <t>a_0097</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>However, I woud prefer traveling by myself, with good preparation, and be filled with joy.</t>
+          <t>However , I woud prefer traveling by myself , with good preparation , and be filled with joy .</t>
         </is>
       </c>
     </row>
@@ -1624,12 +1624,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>b_0099</t>
+          <t>a_0099</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Althogh some people say that the treasures are already found.</t>
+          <t>Althogh some people say that the treasures are already found .</t>
         </is>
       </c>
     </row>
@@ -1648,24 +1648,24 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>b_0101</t>
+          <t>a_0101</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>First effect is grobal warming.</t>
+          <t>First effect is grobal warming .</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>b_0102</t>
+          <t>a_0102</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>So, Ho Chi Minh city will develope.</t>
+          <t>So , Ho Chi Minh city will develope .</t>
         </is>
       </c>
     </row>
@@ -1756,12 +1756,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>a_0110</t>
+          <t>b_0110</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>In my past experiences , there are some lectures which are completely baed on facts , and there is a slim chance for me to apply them .</t>
+          <t>In my past experiences, there are some lectures which are completely baed on facts, and there is a slim chance for me to apply them.</t>
         </is>
       </c>
     </row>
@@ -1792,12 +1792,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>b_0113</t>
+          <t>a_0113</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Water is necessary to alive.</t>
+          <t>Water is necessary to alive .</t>
         </is>
       </c>
     </row>
@@ -1816,48 +1816,48 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>a_0115</t>
+          <t>b_0115</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>becase if I study in this way , I will gain so much , and I also will have a lot of information from the books .</t>
+          <t>becase if I study in this way, I will gain so much, and I also will have a lot of information from the books.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>a_0116</t>
+          <t>b_0116</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>When you understand the concepts and ideas , it is up to you to prove them , to see if they are really what you have been told , and i think this is the main reason why students prefere facts rather than just understanding ideas and concepts .</t>
+          <t>When you understand the concepts and ideas, it is up to you to prove them, to see if they are really what you have been told, and i think this is the main reason why students prefere facts rather than just understanding ideas and concepts.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>a_0117</t>
+          <t>b_0117</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>for example , if you are attempting to study arts and scienses , and are trying to get equalifications in both , you are an extraordinary creation .</t>
+          <t>for example, if you are attempting to study arts and scienses, and are trying to get equalifications in both, you are an extraordinary creation.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>a_0118</t>
+          <t>b_0118</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>So in this field , it is very important to understand all the concepts and idease they gave us and use them to solve problems .</t>
+          <t>So in this field, it is very important to understand all the concepts and idease they gave us and use them to solve problems.</t>
         </is>
       </c>
     </row>
@@ -1876,24 +1876,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>b_0120</t>
+          <t>a_0120</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Third, the professor agrees that the gas prices in the United States are cheep, and they should rais them to safe the enviroment and people's health.</t>
+          <t>Third , the professor agrees that the gas prices in the United States are cheep , and they should rais them to safe the enviroment and people 's health .</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>b_0121</t>
+          <t>a_0121</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>But they do things in a different maner than others do, which gives them success.</t>
+          <t>But they do things in a different maner than others do , which gives them success .</t>
         </is>
       </c>
     </row>
@@ -1912,12 +1912,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>b_0123</t>
+          <t>a_0123</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>I think it's harder for a successful person to risk something becuase thay coluld lose much more then others.</t>
+          <t>I think it 's harder for a successful person to risk something becuase thay coluld lose much more then others .</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>b_0125</t>
+          <t>a_0125</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>At some time they have to face their failures and strugles.</t>
+          <t>At some time they have to face their failures and strugles .</t>
         </is>
       </c>
     </row>
@@ -1960,12 +1960,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>b_0127</t>
+          <t>a_0127</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>So, some people use their car only for moving somewher.</t>
+          <t>So , some people use their car only for moving somewher .</t>
         </is>
       </c>
     </row>
@@ -2008,48 +2008,48 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>b_0131</t>
+          <t>a_0131</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>The Second differance between the encylopedia and information on the Internet is that there are a lot of viruses and hackers on the internet, and hackers can easily change information regarding any topic.</t>
+          <t>The Second differance between the encylopedia and information on the Internet is that there are a lot of viruses and hackers on the internet , and hackers can easily change information regarding any topic .</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>b_0132</t>
+          <t>a_0132</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>For example, If i want to win a case in court in which technical questions are to be considered-, it is not enough to just know about the law.</t>
+          <t>For example , If i want to win a case in court in which technical questions are to be considered- , it is not enough to just know about the law .</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>b_0133</t>
+          <t>a_0133</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>successful people try to do new things, likr use any machine that could possibly help people.</t>
+          <t>successful people try to do new things , likr use any machine that could possibly help people .</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>b_0134</t>
+          <t>a_0134</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>The economy would benefit because this would enable it to compete with car manufactures worldwide.</t>
+          <t>The economy would benefit because this would enable it to compete with car manufactures worldwide .</t>
         </is>
       </c>
     </row>
@@ -2068,12 +2068,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>b_0136</t>
+          <t>a_0136</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>That is because If I became a member, I could be highly esteemed by my friends.</t>
+          <t>That is because If I became a member , I could be highly esteemed by my friends .</t>
         </is>
       </c>
     </row>
@@ -2092,12 +2092,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>b_0138</t>
+          <t>a_0138</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Who we mach them togather with.</t>
+          <t>Who we mach them togather with .</t>
         </is>
       </c>
     </row>
@@ -2128,36 +2128,36 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>b_0141</t>
+          <t>a_0141</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Firstly, a theacher teaches students the right way to do things and affords confidence to students.</t>
+          <t>Firstly , a theacher teaches students the right way to do things and affords confidence to students .</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>b_0142</t>
+          <t>a_0142</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>We don't usually study these subjects very deaply.</t>
+          <t>We do n't usually study these subjects very deaply .</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>a_0143</t>
+          <t>b_0143</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>It would be a really wasteful idean .</t>
+          <t>It would be a really wasteful idean.</t>
         </is>
       </c>
     </row>
@@ -2188,60 +2188,60 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>b_0146</t>
+          <t>a_0146</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>I do not want to go to the Effel Tower in Paris, or The Statue of Liberty in New York, when I travel because they are too well known, so I have already heard about and seen them.</t>
+          <t>I do not want to go to the Effel Tower in Paris , or The Statue of Liberty in New York , when I travel because they are too well known , so I have already heard about and seen them .</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>b_0147</t>
+          <t>a_0147</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>In this case, the advertisement totaly makes an impact on that baby.</t>
+          <t>In this case , the advertisement totaly makes an impact on that baby .</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>b_0148</t>
+          <t>a_0148</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Lastly, business owners thought factories would help reduce their overrall business expenses by reducing their transportation costs.</t>
+          <t>Lastly , business owners thought factories would help reduce their overrall business expenses by reducing their transportation costs .</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>b_0149</t>
+          <t>a_0149</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>This person guides you through paradise and takes you to wonderfull places.</t>
+          <t>This person guides you through paradise and takes you to wonderfull places .</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>b_0150</t>
+          <t>a_0150</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Really successful people gained their fortunes by trying somethig new, something that no one else has ever done before, and taking risks where people were too afraid to.</t>
+          <t>Really successful people gained their fortunes by trying somethig new , something that no one else has ever done before , and taking risks where people were too afraid to .</t>
         </is>
       </c>
     </row>
@@ -2320,12 +2320,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>b_0157</t>
+          <t>a_0157</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Altough life is never easy, age doesn't ensure you can be protected from bad things.</t>
+          <t>Altough life is never easy , age does n't ensure you can be protected from bad things .</t>
         </is>
       </c>
     </row>
@@ -2356,12 +2356,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>a_0160</t>
+          <t>b_0160</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>But if he did one machine like that , he , if he wanted , can do another differently , but he does n't think that because he does n't know his own habilities .</t>
+          <t>But if he did one machine like that, he, if he wanted, can do another differently, but he doesn't think that because he doesn't know his own habilities.</t>
         </is>
       </c>
     </row>
@@ -2392,12 +2392,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>b_0163</t>
+          <t>a_0163</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>In order to get an ecocertification, many wood companies around the world have introduced new ecologically friendly practices.</t>
+          <t>In order to get an ecocertification , many wood companies around the world have introduced new ecologically friendly practices .</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2416,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>b_0165</t>
+          <t>a_0165</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>When facing such challenges, only those who are perserverant, determined, and always strive until the last minute, despite of the risks, can be successful.</t>
+          <t>When facing such challenges , only those who are perserverant , determined , and always strive until the last minute , despite of the risks , can be successful .</t>
         </is>
       </c>
     </row>
@@ -2440,36 +2440,36 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>b_0167</t>
+          <t>a_0167</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>In old times, familes tended to live in the same place for ages.</t>
+          <t>In old times , familes tended to live in the same place for ages .</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>b_0168</t>
+          <t>a_0168</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>I think that young peopie are not able to think as deeply on things as older people.</t>
+          <t>I think that young peopie are not able to think as deeply on things as older people .</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>b_0169</t>
+          <t>a_0169</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>My friends are celebrating at the pary.</t>
+          <t>My friends are celebrating at the pary .</t>
         </is>
       </c>
     </row>
@@ -2488,12 +2488,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>b_0171</t>
+          <t>a_0171</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Thus, most of the inhabitants in rural ereas are the old ones.</t>
+          <t>Thus , most of the inhabitants in rural ereas are the old ones .</t>
         </is>
       </c>
     </row>
@@ -2524,12 +2524,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>b_0174</t>
+          <t>a_0174</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>The definition of yong or old is not apparent.</t>
+          <t>The definition of yong or old is not apparent .</t>
         </is>
       </c>
     </row>
@@ -2548,24 +2548,24 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>b_0176</t>
+          <t>a_0176</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>He might fell afraid or terrible when the same thing happens to him.</t>
+          <t>He might fell afraid or terrible when the same thing happens to him .</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>b_0177</t>
+          <t>a_0177</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>When older people think like that, it creates a big problem for yong people.</t>
+          <t>When older people think like that , it creates a big problem for yong people .</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>b_0185</t>
+          <t>a_0185</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>This is evidence: the company that made some of the products had to pay a lot of money to the broadcasting breaus.</t>
+          <t>This is evidence : the company that made some of the products had to pay a lot of money to the broadcasting breaus .</t>
         </is>
       </c>
     </row>
@@ -2716,12 +2716,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>b_0190</t>
+          <t>a_0190</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>A Sceene of violence can have an affect on them.</t>
+          <t>A Sceene of violence can have an affect on them .</t>
         </is>
       </c>
     </row>
@@ -2740,24 +2740,24 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>b_0192</t>
+          <t>a_0192</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>if it does, you will only get some misunderstood idea about that acticle but not the original one.</t>
+          <t>if it does , you will only get some misunderstood idea about that acticle but not the original one .</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>b_0193</t>
+          <t>a_0193</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Secondly, chimps are also capable of learning grammer, meaning they can demonstrate the ability to combine words and utilize grammatical constructions.</t>
+          <t>Secondly , chimps are also capable of learning grammer , meaning they can demonstrate the ability to combine words and utilize grammatical constructions .</t>
         </is>
       </c>
     </row>
@@ -2788,36 +2788,36 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>a_0196</t>
+          <t>b_0196</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>becuse if i see someone did somthing that may safe me time and energy and it works , i will do it .</t>
+          <t>becuse if i see someone did somthing that may safe me time and energy and it works, i will do it.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>b_0197</t>
+          <t>a_0197</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>That's why he is a legend in these days and people repect him.</t>
+          <t>That 's why he is a legend in these days and people repect him .</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>b_0198</t>
+          <t>a_0198</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>On the other hand, when I was a freshman at my college, I could concentrate on my favorit subjects.</t>
+          <t>On the other hand , when I was a freshman at my college , I could concentrate on my favorit subjects .</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>b_0200</t>
+          <t>a_0200</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>I am pleased to know intelligent peple and learn about things which I don't know.</t>
+          <t>I am pleased to know intelligent peple and learn about things which I do n't know .</t>
         </is>
       </c>
     </row>
@@ -2860,24 +2860,24 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>a_0202</t>
+          <t>b_0202</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>With her salary , we ca n't buy some car because we are planing to finish our hause in Binangonan , Rizal and we will be planing to finish my study in Boston .</t>
+          <t>With her salary, we can't buy some car because we are planing to finish our hause in Binangonan, Rizal and we will be planing to finish my study in Boston.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>b_0203</t>
+          <t>a_0203</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>A person with broad knowlege will help him renovate.</t>
+          <t>A person with broad knowlege will help him renovate .</t>
         </is>
       </c>
     </row>
@@ -2908,24 +2908,24 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>b_0206</t>
+          <t>a_0206</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>For example, if the city says that 8 am ~ 9 am is the busiest time, than the worker would argue that they drive a little later.</t>
+          <t>For example , if the city says that 8 am ~ 9 am is the busiest time , than the worker would argue that they drive a little later .</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>b_0207</t>
+          <t>a_0207</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>twenty years down the lane, every major city would end up being a pile of metal junkyard, with no place to move around.</t>
+          <t>twenty years down the lane , every major city would end up being a pile of metal junkyard , with no place to move around .</t>
         </is>
       </c>
     </row>
@@ -2944,24 +2944,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>b_0209</t>
+          <t>a_0209</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>In malysia there are a lot of cars.</t>
+          <t>In malysia there are a lot of cars .</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>b_0210</t>
+          <t>a_0210</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>So they are free to do all sorts of things, even if thez are cinsidered dangerous or irresponsible, such as bungee-jumping.</t>
+          <t>So they are free to do all sorts of things , even if thez are cinsidered dangerous or irresponsible , such as bungee-jumping .</t>
         </is>
       </c>
     </row>
@@ -2980,12 +2980,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>b_0212</t>
+          <t>a_0212</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Everyone would expect to live on his own and secret dreams like to be a painter or a writter.</t>
+          <t>Every one would expect to live on his own and secret dreams like to be a painter or a writter .</t>
         </is>
       </c>
     </row>
@@ -3016,12 +3016,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>a_0215</t>
+          <t>b_0215</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>An example that would make this categorization problemmatic is an architect .</t>
+          <t>An example that would make this categorization problemmatic is an architect.</t>
         </is>
       </c>
     </row>
@@ -3076,36 +3076,36 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>b_0220</t>
+          <t>a_0220</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>He or she would not be able to discuss spesific problems just because he does not know them.</t>
+          <t>He or she would not be able to discuss spesific problems just because he does not know them .</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>b_0221</t>
+          <t>a_0221</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>By the same token, people will learn many different intelligences by doing many things, but they just learn its appeals and don't get any crutial information or wisdom from them.</t>
+          <t>By the same token , people will learn many different intelligences by doing many things , but they just learn its appeals and do n't get any crutial information or wisdom from them .</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>b_0222</t>
+          <t>a_0222</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>New experiences to somebory is the same as a challenger and the challenger is moviment, which is the rason that some people have continued to live.</t>
+          <t>New experiences to somebory is the same as a challenger and the challenger is moviment , which is the rason that some people have continued to live .</t>
         </is>
       </c>
     </row>
@@ -3136,24 +3136,24 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>b_0225</t>
+          <t>a_0225</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Without empirical evidence, the learner tends to forget all the information he or she has learned throuhout the learning process in the long term.</t>
+          <t>Without empirical evidence , the learner tends to forget all the information he or she has learned throuhout the learning process in the long term .</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>b_0226</t>
+          <t>a_0226</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Court coats are very high and many desputed tickets are seen.</t>
+          <t>Court coats are very high and many desputed tickets are seen .</t>
         </is>
       </c>
     </row>
@@ -3196,36 +3196,36 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>b_0230</t>
+          <t>a_0230</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Unfortunately, in most of the countries, the functioning of public transport is not perfecty organised.</t>
+          <t>Unfortunately , in most of the countries , the functioning of public transport is not perfecty organised .</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>b_0231</t>
+          <t>a_0231</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>The public transpotation in the city may not be able to cope with the huge amount of people flow.</t>
+          <t>The public transpotation in the city may not be able to cope with the huge amount of people flow .</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>a_0232</t>
+          <t>b_0232</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>This does n't mean that because you take risks you are going to succed .</t>
+          <t>This doesn't mean that because you take risks you are going to succed.</t>
         </is>
       </c>
     </row>
@@ -3244,12 +3244,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>a_0234</t>
+          <t>b_0234</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Can you ever visualize what chaos our society would suffer if every individual considers himself/ / herself an expert in every given field ?</t>
+          <t>Can you ever visualize what chaos our society would suffer if every individual considers himself // herself an expert in every given field?</t>
         </is>
       </c>
     </row>
@@ -3292,24 +3292,24 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>b_0238</t>
+          <t>a_0238</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>you have to teach your child until they graw up.</t>
+          <t>you have to teach your child until they graw up .</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>b_0239</t>
+          <t>a_0239</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>For example, If students have to study for history, it is often enough to just learn the facts; on the other hand, studing for physics or math, one needs to understand the concepts.</t>
+          <t>For example , If students have to study for history , it is often enough to just learn the facts ; on the other hand , studing for physics or math , one needs to understand the concepts .</t>
         </is>
       </c>
     </row>
@@ -3328,12 +3328,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>b_0241</t>
+          <t>a_0241</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Young people nowdays don't give enough time to help their communities.</t>
+          <t>Young people nowdays do n't give enough time to help their communities .</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>b_0250</t>
+          <t>a_0250</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>With the gasoline tax rasing, it would entice the vehicle company to make more cars to sell to people.</t>
+          <t>With the gasoline tax rasing , it would entice the vehicle company to make more cars to sell to people .</t>
         </is>
       </c>
     </row>
@@ -3460,12 +3460,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>b_0252</t>
+          <t>a_0252</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Although there are some rules to protect young people, such as age limits for movies and previews reviewing the bad aspects of programs before they air, the rules are only made for little kids, not young peole like those in high school or universities.</t>
+          <t>Although there are some rules to protect young people , such as age limits for movies and previews reviewing the bad aspects of programs before they air , the rules are only made for little kids , not young peole like those in high school or universities .</t>
         </is>
       </c>
     </row>
@@ -3496,24 +3496,24 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>b_0255</t>
+          <t>a_0255</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>This demonstrates the undeniable fact that it is bebeficial to have differnt experiences.</t>
+          <t>This demonstrates the undeniable fact that it is bebeficial to have differnt experiences .</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>b_0256</t>
+          <t>a_0256</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Travelling in a group helps us to make our trip more productive, especially with a tour guide.</t>
+          <t>Travelling in a group helps us to make our trip more productive , especially with a tour guide .</t>
         </is>
       </c>
     </row>
@@ -3544,12 +3544,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>b_0259</t>
+          <t>a_0259</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Second, the rouds cannot be damged because when taxes are raised there will be fewer cars.</t>
+          <t>Second , the rouds can not be damged because when taxes are raised there will be fewer cars .</t>
         </is>
       </c>
     </row>
@@ -3568,12 +3568,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>b_0261</t>
+          <t>a_0261</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>In America, a lot of families have more than one car and futhermore some of them have three or four.</t>
+          <t>In America , a lot of families have more than one car and futhermore some of them have three or four .</t>
         </is>
       </c>
     </row>
@@ -3676,72 +3676,72 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>b_0270</t>
+          <t>a_0270</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Scond, Menzied points out that chinese ships in the 1400's used very distinctive anchors that were round stones with a hole in the middle.</t>
+          <t>Scond , Menzied points out that chinese ships in the 1400 's used very distinctive anchors that were round stones with a hole in the middle .</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>b_0271</t>
+          <t>a_0271</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>In a group trip, we are forced to follow the goup time schedules.</t>
+          <t>In a group trip , we are forced to follow the goup time schedules .</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>a_0272</t>
+          <t>b_0272</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Help others and make a confortable home for all .</t>
+          <t>Help others and make a confortable home for all.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>a_0273</t>
+          <t>b_0273</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>I can remember that from a alecture I iattended .</t>
+          <t>I can remember that from a alecture I iattended.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>b_0274</t>
+          <t>a_0274</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>television makers just hang academic titles on their program.</t>
+          <t>television makers just hang academic titles on their program .</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>b_0275</t>
+          <t>a_0275</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Even through everthing, when there is life, there is hope.</t>
+          <t>Even through everthing , when there is life , there is hope .</t>
         </is>
       </c>
     </row>
@@ -3772,24 +3772,24 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>b_0278</t>
+          <t>a_0278</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>It is not worth it to jump in a pool without knowing how to swim because you may not be able to breath again.</t>
+          <t>It is not worth it to jump in a pool without knowing how to swim because you may not be able to breath again .</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>b_0279</t>
+          <t>a_0279</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Another thing is that advertisements always show and indicate prices on commdities, alowing consumers to budget well in order to be able to buy them.</t>
+          <t>Another thing is that advertisements always show and indicate prices on commdities , alowing consumers to budget well in order to be able to buy them .</t>
         </is>
       </c>
     </row>
@@ -3808,12 +3808,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>b_0281</t>
+          <t>a_0281</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>we simply need to eat, buy clothes, make and rise a family.</t>
+          <t>we simply need to eat , buy clothes , make and rise a family .</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3856,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>b_0285</t>
+          <t>a_0285</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Such peole impressed others through their strong well and devotion to duty.</t>
+          <t>Such peole impressed others through their strong well and devotion to duty .</t>
         </is>
       </c>
     </row>
@@ -3892,36 +3892,36 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>b_0288</t>
+          <t>a_0288</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Adults are content to send their chirdren to school to experience these different kinds of classes.</t>
+          <t>Adults are content to send their chirdren to school to experience these different kinds of classes .</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>b_0289</t>
+          <t>a_0289</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>The inability to do desired things makes olders unhappy.</t>
+          <t>The inability to do desired things makes olders unhappy .</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>b_0290</t>
+          <t>a_0290</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>However, I want to go to the U.S.A so that I can study and life in the country of my dreams; I want to have a family so that I never have to be alony.</t>
+          <t>However , I want to go to the U.S.A so that I can study and life in the country of my dreams ; I want to have a family so that I never have to be alony .</t>
         </is>
       </c>
     </row>
@@ -3940,12 +3940,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>b_0292</t>
+          <t>a_0292</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Because of this, I prefer studying concepts and ideas more thad learnig facts.</t>
+          <t>Because of this , I prefer studying concepts and ideas more thad learnig facts .</t>
         </is>
       </c>
     </row>
@@ -3964,48 +3964,48 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>b_0294</t>
+          <t>a_0294</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>the preferrences of a young person and an older person might differ for them to fully enjoy their lives.</t>
+          <t>the preferrences of a young person and an older person might differ for them to fully enjoy their lives .</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>b_0295</t>
+          <t>a_0295</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>It has some problems that can effect humens.</t>
+          <t>It has some problems that can effect humens .</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>b_0296</t>
+          <t>a_0296</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>It mentions how it has reached to some oarts of North America.</t>
+          <t>It mentions how it has reached to some oarts of North America .</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>b_0297</t>
+          <t>a_0297</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Many people think that the treasure never existed, but in reality it exits.</t>
+          <t>Many people think that the treasure never existed , but in reality it exits .</t>
         </is>
       </c>
     </row>
@@ -4060,12 +4060,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>b_0302</t>
+          <t>a_0302</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>In twenty years, they also can give us better cars that use fewer resources, and give us much more convenient tools for travelling.</t>
+          <t>In twenty years , they also can give us better cars that use fewer resources , and give us much more convenient tools for travelling .</t>
         </is>
       </c>
     </row>
@@ -4156,24 +4156,24 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>b_0310</t>
+          <t>a_0310</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Attendence does not mean that teenegers are fully participating in class.</t>
+          <t>Attendence does not mean that teenegers are fully participating in class .</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>b_0311</t>
+          <t>a_0311</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>In studing the processes underlying biochemical pathways, a knowledge of biochemistry is required, which is an integration of biology and chemistry.</t>
+          <t>In studing the processes underlying biochemical pathways , a knowledge of biochemistry is required , which is an integration of biology and chemistry .</t>
         </is>
       </c>
     </row>
@@ -4204,24 +4204,24 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>b_0314</t>
+          <t>a_0314</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>For instance, the birds are not usually trying to remeber the subjects what they have passed by, such as a stone, a building, or even a small house.</t>
+          <t>For instance , the birds are not usually trying to remeber the subjects what they have passed by , such as a stone , a building , or even a small house .</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>b_0315</t>
+          <t>a_0315</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>So it means that there is no certain way that migratintg birds find their way home.</t>
+          <t>So it means that there is no certain way that migratintg birds find their way home .</t>
         </is>
       </c>
     </row>
@@ -4276,36 +4276,36 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>b_0320</t>
+          <t>a_0320</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Because it rains more, and the plants grow well, so the Puebo can make full use of it.</t>
+          <t>Because it rains more , and the plants grow well , so the Puebo can make full use of it .</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>a_0321</t>
+          <t>b_0321</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Additionaly , popular movies , stars , or famous people in advertisements attract people .</t>
+          <t>Additionaly, popular movies, stars, or famous people in advertisements attract people.</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>b_0322</t>
+          <t>a_0322</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Let us think of music as a metaphor for all the areas of knowledge, and the different instruments as metaphors for all the seperate disciplines.</t>
+          <t>Let us think of music as a metaphor for all the areas of knowledge , and the different instruments as metaphors for all the seperate disciplines .</t>
         </is>
       </c>
     </row>
@@ -4324,36 +4324,36 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>b_0324</t>
+          <t>a_0324</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Many people have many reasons, like to see things abroad or to have diffrent experiences, but their purposes have something in common.</t>
+          <t>Many people have many reasons , like to see things abroad or to have diffrent experiences , but their purposes have something in common .</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>b_0325</t>
+          <t>a_0325</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>We alwayse joke around or do something stupid.</t>
+          <t>We alwayse joke around or do something stupid .</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>b_0326</t>
+          <t>a_0326</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Last but not least, zenra mussels are likely to cause a decline in the overall fish population in habitats where they become dominant.</t>
+          <t>Last but not least , zenra mussels are likely to cause a decline in the overall fish population in habitats where they become dominant .</t>
         </is>
       </c>
     </row>
@@ -4372,12 +4372,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>b_0328</t>
+          <t>a_0328</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>The population explosion is another factor catalysing the consumption of energy resources.</t>
+          <t>The population explosion is another factor catalysing the consumption of energy resources .</t>
         </is>
       </c>
     </row>
@@ -4396,36 +4396,36 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>b_0330</t>
+          <t>a_0330</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>As I see it, there will be a lot of research done in the future to find alternitive, environmental-friendly, energies as well as cheaper energies.</t>
+          <t>As I see it , there will be a lot of research done in the future to find alternitive , environmental-friendly , energies as well as cheaper energies .</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>b_0331</t>
+          <t>a_0331</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>bacause I have broad knowledge.</t>
+          <t>bacause I have broad knowledge .</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>b_0332</t>
+          <t>a_0332</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>If everone in the city uses their own cars, the city will be seriously polluted by the smoke.</t>
+          <t>If everone in the city uses their own cars , the city will be seriously polluted by the smoke .</t>
         </is>
       </c>
     </row>
@@ -4444,12 +4444,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>a_0334</t>
+          <t>b_0334</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Fourtunately their topic becomes more clear by using this many concepts provided by the books .</t>
+          <t>Fourtunately their topic becomes more clear by using this many concepts provided by the books.</t>
         </is>
       </c>
     </row>
@@ -4468,24 +4468,24 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>a_0336</t>
+          <t>b_0336</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>also , it saves your time and makes you satify this journal .</t>
+          <t>also, it saves your time and makes you satify this journal.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>b_0337</t>
+          <t>a_0337</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>they are the boney and vital part to society.</t>
+          <t>they are the boney and vital part to society .</t>
         </is>
       </c>
     </row>
@@ -4504,12 +4504,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>b_0339</t>
+          <t>a_0339</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Every house nowdays has a computer, mobile phone, etc., and this is the thing today's man wants to live.</t>
+          <t>Every house nowdays has a computer , mobile phone , etc . , and this is the thing today 's man wants to live .</t>
         </is>
       </c>
     </row>
@@ -4528,12 +4528,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>b_0341</t>
+          <t>a_0341</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>These surveys also demostrate how much young men, and women, are not aware of the improvements they could afford if they were able to really put themselves in an effective position within their communities.</t>
+          <t>These surveys also demostrate how much young men , and women , are not aware of the improvements they could afford if they were able to really put themselves in an effective position within their communities .</t>
         </is>
       </c>
     </row>
@@ -4576,24 +4576,24 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>b_0345</t>
+          <t>a_0345</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>For instance, when I was in elementary school, I learned mathmatics formulas without concepts.</t>
+          <t>For instance , when I was in elementary school , I learned mathmatics formulas without concepts .</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>a_0346</t>
+          <t>b_0346</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>that would be a frequently asked qeuestion , so to answer this question we should be aware of the facts .</t>
+          <t>that would be a frequently asked qeuestion, so to answer this question we should be aware of the facts.</t>
         </is>
       </c>
     </row>
@@ -4636,36 +4636,36 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>a_0350</t>
+          <t>b_0350</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>For exemple , it will be easier for people to concentrate on a subject such as geology , having a broad knowledge of many academics , than to try to concentrate on geology after having studied litterature .</t>
+          <t>For exemple, it will be easier for people to concentrate on a subject such as geology, having a broad knowledge of many academics, than to try to concentrate on geology after having studied litterature.</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>b_0351</t>
+          <t>a_0351</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>After an official training course, we helped the patients bath, talked with the elder people who lived alone, and helped the organization hold activities during special occasions like mother's day.</t>
+          <t>After an official training course , we helped the patients bath , talked with the elder people who lived alone , and helped the organization hold activities during special occasions like mother 's day .</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>b_0352</t>
+          <t>a_0352</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>You can buy a vavilla cake in a fine store and another vanilla cake at a regular store.</t>
+          <t>You can buy a vavilla cake in a fine store and another vanilla cake at a regular store .</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4708,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>b_0356</t>
+          <t>a_0356</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>It is possible that with the energy problem, people's live style will be changed.</t>
+          <t>It is possible that with the energy problem , people 's live style will be changed .</t>
         </is>
       </c>
     </row>
@@ -4744,24 +4744,24 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>b_0359</t>
+          <t>a_0359</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>First, we can protect our enviroment by saving oil and gas.</t>
+          <t>First , we can protect our enviroment by saving oil and gas .</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>a_0360</t>
+          <t>b_0360</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>And I completely disagree with what the auther wanted to say .</t>
+          <t>And I completely disagree with what the auther wanted to say.</t>
         </is>
       </c>
     </row>
@@ -4792,36 +4792,36 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>b_0363</t>
+          <t>a_0363</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Indeed, on the one hand, there are obviously signs that cars are doomed to be less and less baught by people.</t>
+          <t>Indeed , on the one hand , there are obviously signs that cars are doomed to be less and less baught by people .</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>b_0364</t>
+          <t>a_0364</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Although we don't have good grades, we have tallent in other things.</t>
+          <t>Although we do n't have good grades , we have tallent in other things .</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>b_0365</t>
+          <t>a_0365</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>To maintain the more valuable products, they have to sometimes use strategies to keep the clientele's enthousiasm high.</t>
+          <t>To maintain the more valuable products , they have to sometimes use strategies to keep the clientele 's enthousiasm high .</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4936,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>b_0375</t>
+          <t>a_0375</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>In my opinion, i agee with the statement that most advertisements make products seem much better than they really are.</t>
+          <t>In my opinion , i agee with the statement that most advertisements make products seem much better than they really are .</t>
         </is>
       </c>
     </row>
@@ -5008,12 +5008,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>b_0381</t>
+          <t>a_0381</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Also, it is more comfotable to move.</t>
+          <t>Also , it is more comfotable to move .</t>
         </is>
       </c>
     </row>
@@ -5044,12 +5044,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>b_0384</t>
+          <t>a_0384</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>This fast pace economic growth, which can also be observed in a large number of developing nations, has brought about an increase in per capita income and imroved lifestyles for individuals.</t>
+          <t>This fast pace economic growth , which can also be observed in a large number of developing nations , has brought about an increase in per capita income and imroved lifestyles for individuals .</t>
         </is>
       </c>
     </row>
@@ -5080,24 +5080,24 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>a_0387</t>
+          <t>b_0387</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>for example , a researcher that wants to be successfull must take risks .</t>
+          <t>for example, a researcher that wants to be successfull must take risks.</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>b_0388</t>
+          <t>a_0388</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>The leg of all modern endotherms are undernearth its body.</t>
+          <t>The leg of all modern endotherms are undernearth its body .</t>
         </is>
       </c>
     </row>
@@ -5116,36 +5116,36 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>b_0390</t>
+          <t>a_0390</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>However, the lecturer says that the vague location was described because the antient people wanted to keep the location of the treasure a secret.</t>
+          <t>However , the lecturer says that the vague location was described because the antient people wanted to keep the location of the treasure a secret .</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>b_0391</t>
+          <t>a_0391</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>But, on the contrary, he argues thlat fluoride also has some disadvantages.</t>
+          <t>But , on the contrary , he argues thlat fluoride also has some disadvantages .</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>b_0392</t>
+          <t>a_0392</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>For exsample, I like to go to a big city like New York.</t>
+          <t>For exsample , I like to go to a big city like New York .</t>
         </is>
       </c>
     </row>
@@ -5176,12 +5176,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>b_0395</t>
+          <t>a_0395</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Becaus we need food.</t>
+          <t>Becaus we need food .</t>
         </is>
       </c>
     </row>
@@ -5200,48 +5200,48 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>b_0397</t>
+          <t>a_0397</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>The personn takes the bike, goes where he wishes and leaves the car at the closest bus station.</t>
+          <t>The personn takes the bike , goes where he wishes and leaves the car at the closest bus station .</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>b_0398</t>
+          <t>a_0398</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>I am going to anothere country.</t>
+          <t>I am going to anothere country .</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>b_0399</t>
+          <t>a_0399</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>The youth today are aware of their responsibilites as a citizen.</t>
+          <t>The youth today are aware of their responsibilites as a citizen .</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>a_0400</t>
+          <t>b_0400</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>But I disegree with this opinion because often the advertisement does n't speak about only the functionality of the product , but it promises other characteristics that do n't depend on it .</t>
+          <t>But I disegree with this opinion because often the advertisement doesn't speak about only the functionality of the product, but it promises other characteristics that don't depend on it.</t>
         </is>
       </c>
     </row>
@@ -5308,36 +5308,36 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>b_0406</t>
+          <t>a_0406</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>And young people spend more time on ther lifestile.</t>
+          <t>And young people spend more time on ther lifestile .</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>b_0407</t>
+          <t>a_0407</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Students can focus on only a few subjects they are intwerested in and they will become experts in those areas.</t>
+          <t>Students can focus on only a few subjects they are intwerested in and they will become experts in those areas .</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>b_0408</t>
+          <t>a_0408</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>He thinks differently than other people and he succeded.</t>
+          <t>He thinks differently than other people and he succeded .</t>
         </is>
       </c>
     </row>
@@ -5368,24 +5368,24 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>b_0411</t>
+          <t>a_0411</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>If every person seeks to learn and understand many scientifc subjects, and anyone can or can't do it, then the result will be that science won't improve.</t>
+          <t>If every person seeks to learn and understand many scientifc subjects , and anyone can or ca n't do it , then the result will be that science wo n't improve .</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>b_0412</t>
+          <t>a_0412</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>soon they will run out, based on the current rate of utilisation.</t>
+          <t>soon they will run out , based on the current rate of utilisation .</t>
         </is>
       </c>
     </row>
@@ -5428,12 +5428,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>a_0416</t>
+          <t>b_0416</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>I have never stopped to think about this , but this is a real possibility for the fucture .</t>
+          <t>I have never stopped to think about this, but this is a real possibility for the fucture.</t>
         </is>
       </c>
     </row>
@@ -5452,24 +5452,24 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>b_0418</t>
+          <t>a_0418</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>If there are specialized docters, it means that the docter has done the operation many times before and is very talented at his job.</t>
+          <t>If there are specialized docters , it means that the docter has done the operation many times before and is very talented at his job .</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>a_0419</t>
+          <t>b_0419</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>So It will be a good situstion .</t>
+          <t>So It will be a good situstion.</t>
         </is>
       </c>
     </row>
@@ -5560,24 +5560,24 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>b_0427</t>
+          <t>a_0427</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>The placebo effect is not an illusion but real, so the drug was effected by the placebo effect.</t>
+          <t>The placebo effect is not an illusion but real , so the drug was effected by the placebo effect .</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>b_0428</t>
+          <t>a_0428</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Many Scientists obtained clear results from the investigations after the facts were on the table but before they even began to theorise about them.</t>
+          <t>Many Scientists obtained clear results from the investigations after the facts were on the table but before they even began to theorise about them .</t>
         </is>
       </c>
     </row>
@@ -5620,36 +5620,36 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>a_0432</t>
+          <t>b_0432</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>for example , when we talk about speed , they must anderstand why it is dangerous ; it is beteer than learning after they have an accident .</t>
+          <t>for example, when we talk about speed, they must anderstand why it is dangerous; it is beteer than learning after they have an accident.</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>b_0433</t>
+          <t>a_0433</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Therefore, peaple will be able to live with the automobile sosiety and the nature for the future.</t>
+          <t>Therefore , peaple will be able to live with the automobile sosiety and the nature for the future .</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>b_0434</t>
+          <t>a_0434</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Marco Polo spoke the Persian langage, not Chinese or Mongolian.</t>
+          <t>Marco Polo spoke the Persian langage , not Chinese or Mongolian .</t>
         </is>
       </c>
     </row>
@@ -5680,12 +5680,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>a_0437</t>
+          <t>b_0437</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>-Learn !</t>
+          <t>-Learn!</t>
         </is>
       </c>
     </row>
@@ -5704,24 +5704,24 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>b_0439</t>
+          <t>a_0439</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Maybe in the beginning, but after some timer other animals in the environment will choose them as their new food.</t>
+          <t>Maybe in the beginning , but after some timer other animals in the environment will choose them as their new food .</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>b_0440</t>
+          <t>a_0440</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Furethermore, the professor denies reading the passage stating that treasure does not exist and is just fiction.</t>
+          <t>Furethermore , the professor denies reading the passage stating that treasure does not exist and is just fiction .</t>
         </is>
       </c>
     </row>
@@ -5836,12 +5836,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>b_0450</t>
+          <t>a_0450</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Also, the food chain becomes more stronger that it was before, such as rabbits and hares.</t>
+          <t>Also , the food chain becomes more stronger that it was before , such as rabbits and hares .</t>
         </is>
       </c>
     </row>
@@ -5884,24 +5884,24 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>b_0454</t>
+          <t>a_0454</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Techology has grown so fast, because everyone tries to work on an invention due to some idea they have developed and concepts that have been applied to this idea from different subject areas.</t>
+          <t>Techology has grown so fast , because everyone tries to work on an invention due to some idea they have developed and concepts that have been applied to this idea from different subject areas .</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>b_0455</t>
+          <t>a_0455</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Governments use that money for public use and safty.</t>
+          <t>Governments use that money for public use and safty .</t>
         </is>
       </c>
     </row>
@@ -5920,24 +5920,24 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>b_0457</t>
+          <t>a_0457</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>he has a lot of money and name but no family life.</t>
+          <t>he has a lot of money and name but no family life .</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>a_0458</t>
+          <t>b_0458</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Broad knowledge on may subjects is not possiable to acquire .</t>
+          <t>Broad knowledge on may subjects is not possiable to acquire.</t>
         </is>
       </c>
     </row>
@@ -5956,36 +5956,36 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>b_0460</t>
+          <t>a_0460</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>It usually makes them more postive about doing it.</t>
+          <t>It usually makes them more postive about doing it .</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>b_0461</t>
+          <t>a_0461</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>both advertisements state that these toothpastes will make your teeth briliant and brighter.</t>
+          <t>both advertisements state that these toothpastes will make your teeth briliant and brighter .</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>b_0462</t>
+          <t>a_0462</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>The advertisement says that the car has space for 10 people when the truth is that the car just has space for 4 people. another example is an advertisement of skin soap that says the soap is the best because your skin will be as soft as the skin of a fifteen-year-old princess or Jennife Lopez.</t>
+          <t>The advertisement says that the car has space for 1 0 people when the truth is that the car just has space for 4 people . another example is an advertisement of skin soap that says the soap is the best because your skin will be as soft as the skin of a fifteen-year-old princess or Jennife Lopez .</t>
         </is>
       </c>
     </row>
@@ -6016,36 +6016,36 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>b_0465</t>
+          <t>a_0465</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Third, although the reading passage claims dinosaurs, because their bone structure is similar to endothermy, but scientists assume that it is not the case.</t>
+          <t>Third , although the reading passage claims dinosaurs , because their bone structure is similar to endothermy , but scientists assume that it is not the case .</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>a_0466</t>
+          <t>b_0466</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>The Actual market requires a more specific knowledge that broad knowledge .</t>
+          <t>The Actual market requires a more specific knowledge that broad knowledge.</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>b_0467</t>
+          <t>a_0467</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Only by braking out of your normal life can you discover new perspectives in your job and your private life.</t>
+          <t>Only by braking out of your normal life can you discover new perspectives in your job and your private life .</t>
         </is>
       </c>
     </row>
@@ -6064,24 +6064,24 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>a_0469</t>
+          <t>b_0469</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Extending the example stated above , i can tell you that during the worst period of Amitabh Bacchan 's life , he was offered a chance to enter politics to take advantage of his publicity , and even though he was to be paid a great deal and was very much in need of financial support , Mr. Bacchan rejected this offer because he knew that was how polititians played with the imotions of common people .</t>
+          <t>Extending the example stated above, i can tell you that during the worst period of Amitabh Bacchan's life, he was offered a chance to enter politics to take advantage of his publicity, and even though he was to be paid a great deal and was very much in need of financial support, Mr. Bacchan rejected this offer because he knew that was how polititians played with the imotions of common people.</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>b_0470</t>
+          <t>a_0470</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>History has shown that realistic people can be more successfull.</t>
+          <t>History has shown that realistic people can be more successfull .</t>
         </is>
       </c>
     </row>
@@ -6136,24 +6136,24 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>b_0475</t>
+          <t>a_0475</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>After the contruction in 1908 of the first commercial car, the ford Model T, mankind has been shackled to the use of the car.</t>
+          <t>After the contruction in 1 9 0 8 of the first commercial car , the ford Model T , mankind has been shackled to the use of the car .</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>b_0476</t>
+          <t>a_0476</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Younger people are still trying to gain experince that olde people have already.</t>
+          <t>Younger people are still trying to gain experince that olde people have already .</t>
         </is>
       </c>
     </row>
@@ -6172,24 +6172,24 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>b_0478</t>
+          <t>a_0478</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>They need cars for many things, such as trasportation, entertainment, and business.</t>
+          <t>They need cars for many things , such as trasportation , entertainment , and business .</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>b_0479</t>
+          <t>a_0479</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Because of the requirement that men must serve in the army, many will have to sacrifise their preciouse time of youth.</t>
+          <t>Because of the requirement that men must serve in the army , many will have to sacrifise their preciouse time of youth .</t>
         </is>
       </c>
     </row>
@@ -6232,12 +6232,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>b_0483</t>
+          <t>a_0483</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>In such a situaction, there is no other way.</t>
+          <t>In such a situaction , there is no other way .</t>
         </is>
       </c>
     </row>
@@ -6280,12 +6280,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>b_0487</t>
+          <t>a_0487</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Because you share only a single interest, thus makes you a loner.</t>
+          <t>Because you share only a single interest , thus makes you a loner .</t>
         </is>
       </c>
     </row>
@@ -6328,12 +6328,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>b_0491</t>
+          <t>a_0491</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>if they do something well, they keep trying untill they know how something works and they think of what it might be useful for.</t>
+          <t>if they do something well , they keep trying untill they know how something works and they think of what it might be useful for .</t>
         </is>
       </c>
     </row>
@@ -6364,12 +6364,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>a_0494</t>
+          <t>b_0494</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>In my opinion , if someone thinks one is more important than the other , why not focuse on one ?</t>
+          <t>In my opinion, if someone thinks one is more important than the other, why not focuse on one?</t>
         </is>
       </c>
     </row>
@@ -6388,36 +6388,36 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>b_0496</t>
+          <t>a_0496</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>When the forest catches fire, the wood turns down into ashes that contain potassium.</t>
+          <t>When the forest catches fire , the wood turns down into ashes that contain potassium .</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>a_0497</t>
+          <t>b_0497</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>in matter of fact , a lot of acadmic subjects can not be used separately .</t>
+          <t>in matter of fact, a lot of acadmic subjects can not be used separately.</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>b_0498</t>
+          <t>a_0498</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Access to a car is very important in everyday life in the United States, as well as in many Latin American countries and third world countries.</t>
+          <t>Access to a car is very important in every day life in the United States , as well as in many Latin American countries and thirdworld countries .</t>
         </is>
       </c>
     </row>
@@ -6448,12 +6448,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>b_0501</t>
+          <t>a_0501</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>The First effect is grobal warming.</t>
+          <t>The First effect is grobal warming .</t>
         </is>
       </c>
     </row>
@@ -6604,60 +6604,60 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>b_0514</t>
+          <t>a_0514</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Like other people, I have seen many instances on TV where rich people are intrested in politica, sports, new technologies, and space.</t>
+          <t>Like other people , I have seen many instances on TV where rich people are intrested in politica , sports , new technologies , and space .</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>a_0515</t>
+          <t>b_0515</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>becase of studying in this way , of cours , I will gain so much , and will gain a lot of knowledge from the book I study from .</t>
+          <t>becase of studying in this way, of cours, I will gain so much, and will gain a lot of knowledge from the book I study from.</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>a_0516</t>
+          <t>b_0516</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>When you understand the concepts and ideas , it is up to you to prove them and to see if they are really what you have been told , and i think this is the main reason that students prefere facts rather than understanding ideas and concepts .</t>
+          <t>When you understand the concepts and ideas, it is up to you to prove them and to see if they are really what you have been told, and i think this is the main reason that students prefere facts rather than understanding ideas and concepts.</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>a_0517</t>
+          <t>b_0517</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>for example , if you are attempting to study arts and scienses and attain equalifications in both , you are an extraordinary student .</t>
+          <t>for example, if you are attempting to study arts and scienses and attain equalifications in both, you are an extraordinary student.</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>a_0518</t>
+          <t>b_0518</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>So in this field , it is very important to understand all concepts and idease given to us and use them to solve problems .</t>
+          <t>So in this field, it is very important to understand all concepts and idease given to us and use them to solve problems.</t>
         </is>
       </c>
     </row>
@@ -6676,12 +6676,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>b_0520</t>
+          <t>a_0520</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Usually in advertisements a presentable face is used: modals, babies, popular athletes, to try to make the product look appealing.</t>
+          <t>Usually in advertisements a presentable face is used : modals , babies , popular athletes , to try to make the product look appealing .</t>
         </is>
       </c>
     </row>
@@ -6700,12 +6700,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>b_0522</t>
+          <t>a_0522</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Third, the professor agrees that gas prices in the United States are cheep, and they should rais them to protect the enviroment and the health of people.</t>
+          <t>Third , the professor agrees that gas prices in the United States are cheep , and they should rais them to protect the enviroment and the health of people .</t>
         </is>
       </c>
     </row>
@@ -6724,12 +6724,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>b_0524</t>
+          <t>a_0524</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>I think it's harder for a successful person to risk something -- thay coluld lose much more then others.</t>
+          <t>I think it 's harder for a successful person to risk something -- thay coluld lose much more then others .</t>
         </is>
       </c>
     </row>
@@ -6748,24 +6748,24 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>b_0526</t>
+          <t>a_0526</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>At some point in time, they will have to face failures and a lot of strugles.</t>
+          <t>At some point in time , they will have to face failures and a lot of strugles .</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>b_0527</t>
+          <t>a_0527</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Because it transmits the hebitats from Eastern Europe to different parts of the world.</t>
+          <t>Because it transmits the hebitats from Eastern Europe to different parts of the world .</t>
         </is>
       </c>
     </row>
@@ -6784,12 +6784,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>b_0529</t>
+          <t>a_0529</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>It is also undeniable that if a man has diversifed knowledge, it would be immediately useful.</t>
+          <t>It is also undeniable that if a man has diversifed knowledge , it would be immediately useful .</t>
         </is>
       </c>
     </row>
@@ -6832,12 +6832,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>b_0533</t>
+          <t>a_0533</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>successful people try to do new things, likr inventing a machine that can help people.</t>
+          <t>successful people try to do new things , likr inventing a machine that can help people .</t>
         </is>
       </c>
     </row>
@@ -6868,12 +6868,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>b_0536</t>
+          <t>a_0536</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>That is because If I became a member, I could be highly esteemed among my friends.</t>
+          <t>That is because If I became a member , I could be highly esteemed among my friends .</t>
         </is>
       </c>
     </row>
@@ -6928,48 +6928,48 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>b_0541</t>
+          <t>a_0541</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>We don't usually study these subjects very deaply.</t>
+          <t>We do n't usually study these subjects very deaply .</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>a_0542</t>
+          <t>b_0542</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>It would be a really wasteful idean .</t>
+          <t>It would be a really wasteful idean.</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>b_0543</t>
+          <t>a_0543</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>he usually bring a books and asks someone questions; he wants to understand the bood.</t>
+          <t>he usually bring a books and asks someone questions ; he wants to understand the bood .</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>b_0544</t>
+          <t>a_0544</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>I do not want to go to the Effel Tower in Paris or The Statue of Liberty in New York when I travel, because they are too famous, so I already heard and saw about them.</t>
+          <t>I do not want to go to the Effel Tower in Paris or The Statue of Liberty in New York when I travel , because they are too famous , so I already heard and saw about them .</t>
         </is>
       </c>
     </row>
@@ -6988,36 +6988,36 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>b_0546</t>
+          <t>a_0546</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Lastly, business owners thought factories would help reduce their overrall business expenses by reducing their transportation costs.</t>
+          <t>Lastly , business owners thought factories would help reduce their overrall business expenses by reducing their transportation costs .</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>b_0547</t>
+          <t>a_0547</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>This person guides you through paradise and takes you to wonderfull places.</t>
+          <t>This person guides you through paradise and takes you to wonderfull places .</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>b_0548</t>
+          <t>a_0548</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Really successful people gain their fortune by doing somethig new, something that no one else has ever done before; their risk is doing something that nobody else knows how to do well.</t>
+          <t>Really successful people gain their fortune by doing somethig new , something that no one else has ever done before ; their risk is doing something that nobody else knows how to do well .</t>
         </is>
       </c>
     </row>
@@ -7048,12 +7048,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>b_0551</t>
+          <t>a_0551</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Today, drinking soda has become an adiction for many people.</t>
+          <t>Today , drinking soda has become an adiction for many people .</t>
         </is>
       </c>
     </row>
@@ -7132,12 +7132,12 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>b_0558</t>
+          <t>a_0558</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>For exemple, you would work as a broadcaster, but in the office and city where you are now working.</t>
+          <t>For exemple , you would work as a broadcaster , but in the office and city where you are now working .</t>
         </is>
       </c>
     </row>
@@ -7156,36 +7156,36 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>b_0560</t>
+          <t>a_0560</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>In olden times, familes tended to live in the same place for many years.</t>
+          <t>In olden times , familes tended to live in the same place for many years .</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>b_0561</t>
+          <t>a_0561</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>I think that young peopie are not able to think deeply about the things like older people.</t>
+          <t>I think that young peopie are not able to think deeply about the things like older people .</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>b_0562</t>
+          <t>a_0562</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>My friends celebrated with a pary.</t>
+          <t>My friends celebrated with a pary .</t>
         </is>
       </c>
     </row>
@@ -7204,12 +7204,12 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>b_0564</t>
+          <t>a_0564</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Thus, most of the habitants in the rural ereas are the older ones.</t>
+          <t>Thus , most of the habitants in the rural ereas are the older ones .</t>
         </is>
       </c>
     </row>
@@ -7240,12 +7240,12 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>b_0567</t>
+          <t>a_0567</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>The definition of yong or older is not apparent.</t>
+          <t>The definition of yong or older is not apparent .</t>
         </is>
       </c>
     </row>
@@ -7276,24 +7276,24 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>b_0570</t>
+          <t>a_0570</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>He may fell afraid or terrible when the same thing happens to him.</t>
+          <t>He may fell afraid or terrible when the same thing happens to him .</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>b_0571</t>
+          <t>a_0571</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>When older people think like that, it creates big problems with yong people.</t>
+          <t>When older people think like that , it creates big problems with yong people .</t>
         </is>
       </c>
     </row>
@@ -7312,12 +7312,12 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>b_0573</t>
+          <t>a_0573</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Afther that, they have to find a well-paid job.</t>
+          <t>Afther that , they have to find a well-paid job .</t>
         </is>
       </c>
     </row>
@@ -7348,12 +7348,12 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>b_0576</t>
+          <t>a_0576</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>The cost of the undergroud is very cheap in some countries, such as France.</t>
+          <t>The cost of the undergroud is very cheap in some countries , such as France .</t>
         </is>
       </c>
     </row>
@@ -7384,12 +7384,12 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>b_0579</t>
+          <t>a_0579</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>This is evidence that the company that made some products had to pay lots of money to the broadcasting breaus.</t>
+          <t>This is evidence that the company that made some products had to pay lots of money to the broadcasting breaus .</t>
         </is>
       </c>
     </row>
@@ -7516,36 +7516,36 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>b_0590</t>
+          <t>a_0590</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>No other transportation concept has been as successful as the car, not only because of the goog street and highway systems throughout the United States and Europe, but also because of the fact that people love their cars.</t>
+          <t>No other transportation concept has been as successful as the car , not only because of the goog street and highway systems throughout the United States and Europe , but also because of the fact that people love their cars .</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>b_0591</t>
+          <t>a_0591</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>That's why he is a legend these days and people repect him.</t>
+          <t>That 's why he is a legend these days and people repect him .</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>b_0592</t>
+          <t>a_0592</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>On the other hand, when I was a freshman at my college, I could concentrate on my favorit subjects.</t>
+          <t>On the other hand , when I was a freshman at my college , I could concentrate on my favorit subjects .</t>
         </is>
       </c>
     </row>
@@ -7576,12 +7576,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>b_0595</t>
+          <t>a_0595</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>I am pleased to know intelligent peple and learn about things that I don't know.</t>
+          <t>I am pleased to know intelligent peple and learn about things that I do n't know .</t>
         </is>
       </c>
     </row>
@@ -7600,24 +7600,24 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>b_0597</t>
+          <t>a_0597</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>A person with broad knowlege will help him renovate.</t>
+          <t>A person with broad knowlege will help him renovate .</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>b_0598</t>
+          <t>a_0598</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>You can only be successfull by learning and trying new things, and by having an open and creative mind.</t>
+          <t>You can only be successfull by learning and trying new things , and by having an open and creative mind .</t>
         </is>
       </c>
     </row>
@@ -7636,60 +7636,60 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>a_0600</t>
+          <t>b_0600</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Or Else twenty years down the lane every major city would end up being a pile of metal junkyard , with no place to move around .</t>
+          <t>Or Else twenty years down the lane every major city would end up being a pile of metal junkyard, with no place to move around.</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>b_0601</t>
+          <t>a_0601</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>For example, in this genaration people watch movies and listen to music more than they read books or novels.</t>
+          <t>For example , in this genaration people watch movies and listen to music more than they read books or novels .</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>b_0602</t>
+          <t>a_0602</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>In malysia, there are a lot of cars.</t>
+          <t>In malysia , there are a lot of cars .</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>b_0603</t>
+          <t>a_0603</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>So they are free to do all sorts of things, even if thez are cinsidered dangerous or irresponsible, such as bungee-jumping.</t>
+          <t>So they are free to do all sorts of things , even if thez are cinsidered dangerous or irresponsible , such as bungee-jumping .</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>b_0604</t>
+          <t>a_0604</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>I think most people will like that in a busy world, but I don't thing it will happen in the next twenty years.</t>
+          <t>I think most people will like that in a busy world , but I do n't thing it will happen in the next twenty years .</t>
         </is>
       </c>
     </row>
@@ -7720,24 +7720,24 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>a_0607</t>
+          <t>b_0607</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>I thought it was kind of ridicurous , but we have to do as the tour guide said .</t>
+          <t>I thought it was kind of ridicurous, but we have to do as the tour guide said.</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>a_0608</t>
+          <t>b_0608</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>An example that would make this categorization problemmatic is an architect .</t>
+          <t>An example that would make this categorization problemmatic is an architect.</t>
         </is>
       </c>
     </row>
@@ -7792,36 +7792,36 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>b_0613</t>
+          <t>a_0613</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>He or she would not be able to discuss spesific problems just because he does not know them.</t>
+          <t>He or she would not be able to discuss spesific problems just because he does not know them .</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>b_0614</t>
+          <t>a_0614</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>By the same token, people will learn many different intelligence by doing so many things but they just learn its appeals and not get any crutial information and wisdom from it.</t>
+          <t>By the same token , people will learn many different intelligence by doing so many things but they just learn its appeals and not get any crutial information and wisdom from it .</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>b_0615</t>
+          <t>a_0615</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>New experiences for someone is the same challenger and that challenger is moviment, and the rason that some people continue living.</t>
+          <t>New experiences for someone is the same challenger and that challenger is moviment , and the rason that some people continue living .</t>
         </is>
       </c>
     </row>
@@ -7840,12 +7840,12 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>b_0617</t>
+          <t>a_0617</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>This is the goverment rule that they have attained this seminar.</t>
+          <t>This is the goverment rule that they have attained this seminar .</t>
         </is>
       </c>
     </row>
@@ -7876,24 +7876,24 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>b_0620</t>
+          <t>a_0620</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>that's why centralized, attributes, and business owners reduce thir business, which is not responsible for the rise of factories.</t>
+          <t>that 's why centralized , attributes , and business owners reduce thir business , which is not responsible for the rise of factories .</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>a_0621</t>
+          <t>b_0621</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>second , birds navigate by landmarks like river , coastlines , and moutains .</t>
+          <t>second, birds navigate by landmarks like river, coastlines, and moutains.</t>
         </is>
       </c>
     </row>
@@ -7912,24 +7912,24 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>b_0623</t>
+          <t>a_0623</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>The public transpotation in the city may not be able to cope with this huge amount of people.</t>
+          <t>The public transpotation in the city may not be able to cope with this huge amount of people .</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>a_0624</t>
+          <t>b_0624</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>This does n't mean that because you take risks you are going to succed .</t>
+          <t>This doesn't mean that because you take risks you are going to succed.</t>
         </is>
       </c>
     </row>
@@ -7960,12 +7960,12 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>a_0627</t>
+          <t>b_0627</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>In this sense , I would introduce the concepts of two aspects with a datailed analysis , and then it will come to the conclusion .</t>
+          <t>In this sense, I would introduce the concepts of two aspects with a datailed analysis, and then it will come to the conclusion.</t>
         </is>
       </c>
     </row>
@@ -7996,12 +7996,12 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>b_0630</t>
+          <t>a_0630</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>you have to teach your child since he or she was anxious to graw up.</t>
+          <t>you have to teach your child since he or she was anxious to graw up .</t>
         </is>
       </c>
     </row>
@@ -8020,12 +8020,12 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>b_0632</t>
+          <t>a_0632</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>For example, the subway in New York, bullet trains in Japan, underground tube trains in Singapore and the sky trains in Bangkok travel at lightening speed.</t>
+          <t>For example , the subway in New York , bullet trains in Japan , underground tube trains in Singapore and the sky trains in Bangkok travel at lightening speed .</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8068,12 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>a_0636</t>
+          <t>b_0636</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>But if the student is going to be only learning things whithout knowing the concept , then no company is give an apportunity to that person because he does not know the concept of its related branch , so it creates a problem in the future .</t>
+          <t>But if the student is going to be only learning things whithout knowing the concept, then no company is give an apportunity to that person because he does not know the concept of its related branch, so it creates a problem in the future.</t>
         </is>
       </c>
     </row>
@@ -8104,12 +8104,12 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>b_0639</t>
+          <t>a_0639</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>It is worthy noting that not everyone will succeed when taking a risk, but that is not enough to deteir anyone who wishes to take one.</t>
+          <t>It is worthy noting that not everyone will succeed when taking a risk , but that is not enough to deteir anyone who wishes to take one .</t>
         </is>
       </c>
     </row>
@@ -8140,12 +8140,12 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>b_0642</t>
+          <t>a_0642</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>As the gasoline tax is rasing, it will help the vehicle company make more cars to sell to people.</t>
+          <t>As the gasoline tax is rasing , it will help the vehicle company make more cars to sell to people .</t>
         </is>
       </c>
     </row>
@@ -8176,12 +8176,12 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>b_0645</t>
+          <t>a_0645</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>We can be a fatalist and say that with the developing of the third world, the problem will get worsen.</t>
+          <t>We can be a fatalist and say that with the developing of the third world , the problem will get worsen .</t>
         </is>
       </c>
     </row>
@@ -8212,36 +8212,36 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>b_0648</t>
+          <t>a_0648</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>This demonstrates the undeniable fact that it is bebeficial to have differnt experiences.</t>
+          <t>This demonstrates the undeniable fact that it is bebeficial to have differnt experiences .</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>b_0649</t>
+          <t>a_0649</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>government is rising the tax on gasoline.</t>
+          <t>government is rising the tax on gasoline .</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>b_0650</t>
+          <t>a_0650</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>He was successful aleady in his fields of living electric equipment, but, he began to dominate new electronics technology and was successful.</t>
+          <t>He was successful aleady in his fields of living electric equipment , but , he began to dominate new electronics technology and was successful .</t>
         </is>
       </c>
     </row>
@@ -8356,36 +8356,36 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>b_0660</t>
+          <t>a_0660</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>The french revolution happend in the middle ages in Europe because of that reason.</t>
+          <t>The french revolution happend in the middle ages in Europe because of that reason .</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>b_0661</t>
+          <t>a_0661</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>This will help to creat a brotherhood relationship.</t>
+          <t>This will help to creat a brotherhood relationship .</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>b_0662</t>
+          <t>a_0662</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>And the presidents of companies lake Toyota and Ford; they are successful because they know how to run ther compeny and make a smart product.</t>
+          <t>And the presidents of companies lake Toyota and Ford ; they are successful because they know how to run ther compeny and make a smart product .</t>
         </is>
       </c>
     </row>
@@ -8404,60 +8404,60 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>b_0664</t>
+          <t>a_0664</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Scond, Menzied points out that chinese ships in the 1400s used very distinctive anchors that were round stones with a hole in the middle.</t>
+          <t>Scond , Menzied points out that chinese ships in the 1400s used very distinctive anchors that were round stones with a hole in the middle .</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>b_0665</t>
+          <t>a_0665</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>In a group trip, we are forced to follow the goup time schedules.</t>
+          <t>In a group trip , we are forced to follow the goup time schedules .</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>a_0666</t>
+          <t>b_0666</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Help others and make sure we all live in a confortable home .</t>
+          <t>Help others and make sure we all live in a confortable home.</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>a_0667</t>
+          <t>b_0667</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>I can remember that from a alecture I iattended .</t>
+          <t>I can remember that from a alecture I iattended.</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>b_0668</t>
+          <t>a_0668</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Even through everthing, there is hope where there is life.</t>
+          <t>Even through everthing , there is hope where there is life .</t>
         </is>
       </c>
     </row>
@@ -8488,24 +8488,24 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>b_0671</t>
+          <t>a_0671</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>It is said that the zebra mussel moved from the bottom of the ship to the fresh wather and devastated the environment.</t>
+          <t>It is said that the zebra mussel moved from the bottom of the ship to the freshwather and devastated the environment .</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>b_0672</t>
+          <t>a_0672</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>This implies that there can be instances were no such overstating takes place at all.</t>
+          <t>This implies that there can be instances were no such overstating takes place at all .</t>
         </is>
       </c>
     </row>
@@ -8524,12 +8524,12 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>b_0674</t>
+          <t>a_0674</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>adverts always show prices on commdities, alowing consumers to budget in order to buy them.</t>
+          <t>adverts always show prices on commdities , alowing consumers to budget in order to buy them .</t>
         </is>
       </c>
     </row>
@@ -8572,36 +8572,36 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>b_0678</t>
+          <t>a_0678</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Advertising can be used for bad, not only by corporations but also by governments, for exemple, the nazi regime.</t>
+          <t>Advertising can be used for bad , not only by corporations but also by governments , for exemple , the nazi regime .</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>b_0679</t>
+          <t>a_0679</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Such peole impressed others with their strong well and devotion to duty.</t>
+          <t>Such peole impressed others with their strong well and devotion to duty .</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>b_0680</t>
+          <t>a_0680</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>For example, if the old person does not hear properly, then young ones right from the day of their cihildhood think of inventing something that can help the older people hear more properly.</t>
+          <t>For example , if the old person does not hear properly , then young ones right from the day of their cihildhood think of inventing something that can help the older people hear more properly .</t>
         </is>
       </c>
     </row>
@@ -8632,24 +8632,24 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>b_0683</t>
+          <t>a_0683</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Adults are content to send their chirdren to school to be in contact with these different kinds of classes.</t>
+          <t>Adults are content to send their chirdren to school to be in contact with these different kinds of classes .</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>b_0684</t>
+          <t>a_0684</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>However, I want to go to the U.S.A so that I can study and life in my dream country, I want to have a family so that I am never lonely.</t>
+          <t>However , I want to go to the U.S.A so that I can study and life in my dream country , I want to have a family so that I am never lonely .</t>
         </is>
       </c>
     </row>
@@ -8668,12 +8668,12 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>b_0686</t>
+          <t>a_0686</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Because of this, I prefer studying concepts and ideas more thad learnig facts.</t>
+          <t>Because of this , I prefer studying concepts and ideas more thad learnig facts .</t>
         </is>
       </c>
     </row>
@@ -8692,12 +8692,12 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>b_0688</t>
+          <t>a_0688</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Everything has changed now and life has becom more difficult.</t>
+          <t>Everything has changed now and life has becom more difficult .</t>
         </is>
       </c>
     </row>
@@ -8728,24 +8728,24 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>b_0691</t>
+          <t>a_0691</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>It has some problems that can effect humens.</t>
+          <t>It has some problems that can effect humens .</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>b_0692</t>
+          <t>a_0692</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>It mentions that now, it has reached to some oarts of North America.</t>
+          <t>It mentions that now , it has reached to some oarts of North America .</t>
         </is>
       </c>
     </row>
@@ -8764,12 +8764,12 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>b_0694</t>
+          <t>a_0694</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Many people think that treasure never existed, but in reality it exits.</t>
+          <t>Many people think that treasure never existed , but in reality it exits .</t>
         </is>
       </c>
     </row>
@@ -8848,12 +8848,12 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>b_0701</t>
+          <t>a_0701</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>during the traffic jam the transit clerks couldn't accomodate such a large amount of people.</t>
+          <t>during the traffic jam the transit clerks could n't accomodate such a large amount of people .</t>
         </is>
       </c>
     </row>
@@ -8884,12 +8884,12 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>b_0704</t>
+          <t>a_0704</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>But if I was trying to do all the sight-seeing without a tour guide, that would be very difficult and dangerous.</t>
+          <t>But if I was trying to do all the sight-seeing without a tour guide , that would be very difficult and dangerous .</t>
         </is>
       </c>
     </row>
@@ -8908,24 +8908,24 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>b_0706</t>
+          <t>a_0706</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Attendence does not mean that teenegers are fully participating in class.</t>
+          <t>Attendence does not mean that teenegers are fully participating in class .</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>b_0707</t>
+          <t>a_0707</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>In studing the processes underlying biochemical pathways, knowledge of biochemistry is required, which is an integration of biology and chemistry.</t>
+          <t>In studing the processes underlying biochemical pathways , knowledge of biochemistry is required , which is an integration of biology and chemistry .</t>
         </is>
       </c>
     </row>
@@ -8944,24 +8944,24 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>b_0709</t>
+          <t>a_0709</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>For instance, the birds do not usually try to remeber the subjects which they have passed by, such as a stone, a building, or even a small house.</t>
+          <t>For instance , the birds do not usually try to remeber the subjects which they have passed by , such as a stone , a building , or even a small house .</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>b_0710</t>
+          <t>a_0710</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>So, it means that there is no certain way about how migratintg birds find their way home.</t>
+          <t>So , it means that there is no certain way about how migratintg birds find their way home .</t>
         </is>
       </c>
     </row>
@@ -9016,24 +9016,24 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>b_0715</t>
+          <t>a_0715</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Because it rains more and the plants grow well, the Puebo people can make full use of it.</t>
+          <t>Because it rains more and the plants grow well , the Puebo people can make full use of it .</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>a_0716</t>
+          <t>b_0716</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Additionaly , popular movies stars or famous people in advertisements attract people .</t>
+          <t>Additionaly, popular movies stars or famous people in advertisements attract people.</t>
         </is>
       </c>
     </row>
@@ -9076,24 +9076,24 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>b_0720</t>
+          <t>a_0720</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>We are alwayse joking around or doing something stupid.</t>
+          <t>We are alwayse joking around or doing something stupid .</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>b_0721</t>
+          <t>a_0721</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Last but no least, zenra mussels are likely to cause a decline in the overall fish population in habitats where they become dominant.</t>
+          <t>Last but no least , zenra mussels are likely to cause a decline in the overall fish population in habitats where they become dominant .</t>
         </is>
       </c>
     </row>
@@ -9112,24 +9112,24 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>b_0723</t>
+          <t>a_0723</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Therefore, we think ourselvese that mental care of society is principal to it.</t>
+          <t>Therefore , we think ourselvese that mental care of society is principal to it .</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>b_0724</t>
+          <t>a_0724</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>but after while they found out it's not true.</t>
+          <t>but after while they found out it 's not true .</t>
         </is>
       </c>
     </row>
@@ -9148,12 +9148,12 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>b_0726</t>
+          <t>a_0726</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>As I see it, there will be a lot of research done in the future to find such alternitive energies, which will also be environmental-friendly, as well as cheaper.</t>
+          <t>As I see it , there will be a lot of research done in the future to find such alternitive energies , which will also be environmental-friendly , as well as cheaper .</t>
         </is>
       </c>
     </row>
@@ -9172,48 +9172,48 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>a_0728</t>
+          <t>b_0728</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>It is bacause I have broad knowledge .</t>
+          <t>It is bacause I have broad knowledge.</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>b_0729</t>
+          <t>a_0729</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>If everone in the city uses their own cars, the city will be seriously polluted by the smoke.</t>
+          <t>If everone in the city uses their own cars , the city will be seriously polluted by the smoke .</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>b_0730</t>
+          <t>a_0730</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>It is this, rather than to give them strong medicins inside them.</t>
+          <t>It is this , rather than to give them strong medicins inside them .</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>a_0731</t>
+          <t>b_0731</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Fourtunately , their topic becomes more clear by using a lot of the concepts provided by the books .</t>
+          <t>Fourtunately, their topic becomes more clear by using a lot of the concepts provided by the books.</t>
         </is>
       </c>
     </row>
@@ -9256,24 +9256,24 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>b_0735</t>
+          <t>a_0735</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>My personal perception is that such a behaviour is damaging to a young person's personality, since it promotes uniformity and conformity rather than creativity and innovation.</t>
+          <t>My personal perception is that such a behaviour is damaging to a young person 's personality , since it promotes uniformity and conformity rather than creativity and innovation .</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>b_0736</t>
+          <t>a_0736</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Every house nowdays has a computer, mobile phone, etc., these are the things today's man want to live with.</t>
+          <t>Every house nowdays has a computer , mobile phone , etc . , these are the things today 's man want to live with .</t>
         </is>
       </c>
     </row>
@@ -9340,12 +9340,12 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>a_0742</t>
+          <t>b_0742</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>that would be a frequently asked qeuestion , so to answer this question we should be aware of the facts .</t>
+          <t>that would be a frequently asked qeuestion, so to answer this question we should be aware of the facts.</t>
         </is>
       </c>
     </row>
@@ -9364,12 +9364,12 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>b_0744</t>
+          <t>a_0744</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Rather than keep his investment within the confines of the oil bussiness, where he is the master, he went ahead with his new plan.</t>
+          <t>Rather than keep his investment within the confines of the oil bussiness , where he is the master , he went ahead with his new plan .</t>
         </is>
       </c>
     </row>
@@ -9400,36 +9400,36 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>a_0747</t>
+          <t>b_0747</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>For exemple , it will be easier for people to concentrate on a subject such as geology , having a broad knowledge of many academics , than to try to concentrate on geology after having studied litterature .</t>
+          <t>For exemple, it will be easier for people to concentrate on a subject such as geology, having a broad knowledge of many academics, than to try to concentrate on geology after having studied litterature.</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>b_0748</t>
+          <t>a_0748</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>After an official training course, we helped the patients to bath, talked with the elderly people who lived alone, and helped the organization to hold activities during special occasions like the mother's day.</t>
+          <t>After an official training course , we helped the patients to bath , talked with the elderly people who lived alone , and helped the organization to hold activities during special occasions like the mother 's day .</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>b_0749</t>
+          <t>a_0749</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>You can buy a vavilla cake in a fine store and another vanilla cake in the regular store.</t>
+          <t>You can buy a vavilla cake in a fine store and another vanilla cake in the regular store .</t>
         </is>
       </c>
     </row>
@@ -9460,12 +9460,12 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>b_0752</t>
+          <t>a_0752</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>It is possible that as the energy problem change, the people's live style will be changed.</t>
+          <t>It is possible that as the energy problem change , the people 's live style will be changed .</t>
         </is>
       </c>
     </row>
@@ -9508,12 +9508,12 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>a_0756</t>
+          <t>b_0756</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>And I completely disagree with what the auther wants to say .</t>
+          <t>And I completely disagree with what the auther wants to say.</t>
         </is>
       </c>
     </row>
@@ -9580,12 +9580,12 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>b_0762</t>
+          <t>a_0762</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>At this time, it is my opiniom that young people enjoy life more than older people do.</t>
+          <t>At this time , it is my opiniom that young people enjoy life more than older people do .</t>
         </is>
       </c>
     </row>
@@ -9616,12 +9616,12 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>a_0765</t>
+          <t>b_0765</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>If , however , the student will put only conepts and his/hers or someone else 's ideas or concepts , which can be mistakes , will make the professor think if the student actualy did what was asked from the assigment .</t>
+          <t>If, however, the student will put only conepts and his/hers or someone else's ideas or concepts, which can be mistakes, will make the professor think if the student actualy did what was asked from the assigment.</t>
         </is>
       </c>
     </row>
@@ -9640,12 +9640,12 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>b_0767</t>
+          <t>a_0767</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>When I was watching TV and listening to the radion.</t>
+          <t>When I was watching TV and listening to the radion .</t>
         </is>
       </c>
     </row>
@@ -9688,12 +9688,12 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>b_0771</t>
+          <t>a_0771</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>In my opinion, i agee with the statement ``most advertisements make products seem much better than they really are.''</t>
+          <t>In my opinion , i agee with the statement `` most advertisements make products seem much better than they really are . ''</t>
         </is>
       </c>
     </row>
@@ -9736,12 +9736,12 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>b_0775</t>
+          <t>a_0775</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Also, it is more comfotable to move.</t>
+          <t>Also , it is more comfotable to move .</t>
         </is>
       </c>
     </row>
@@ -9760,24 +9760,24 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>b_0777</t>
+          <t>a_0777</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>This fast paced economic growth, which can also be observed in a large number of developing nations, has brought about an increase in per capita income and imroved lifestyles for individuals.</t>
+          <t>This fast paced economic growth , which can also be observed in a large number of developing nations , has brought about an increase in per capita income and imroved lifestyles for individuals .</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>b_0778</t>
+          <t>a_0778</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>I want broad knowedge of many academic subjects.</t>
+          <t>I want broad knowedge of many academic subjects .</t>
         </is>
       </c>
     </row>
@@ -9796,24 +9796,24 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>a_0780</t>
+          <t>b_0780</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>for example , a researcher that wants to be successfull must take risks .</t>
+          <t>for example, a researcher that wants to be successfull must take risks.</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>b_0781</t>
+          <t>a_0781</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>The leg of all modern thermodynamics are undernearth it's body.</t>
+          <t>The leg of all modern thermodynamics are undernearth it 's body .</t>
         </is>
       </c>
     </row>
@@ -9832,24 +9832,24 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>b_0783</t>
+          <t>a_0783</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>However, the lecturer says that the vague location was described because the antient people wanted to keep the location of the treasure secret.</t>
+          <t>However , the lecturer says that the vague location was described because the antient people wanted to keep the location of the treasure secret .</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>b_0784</t>
+          <t>a_0784</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>But, on the contrary, he argues thlat fluoride also has some disadvantages.</t>
+          <t>But , on the contrary , he argues thlat fluoride also has some disadvantages .</t>
         </is>
       </c>
     </row>
@@ -9880,24 +9880,24 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>a_0787</t>
+          <t>b_0787</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Thus , we can easily remember this formura without having spent exstra enersy and time. and it is still usefull to me .</t>
+          <t>Thus, we can easily remember this formura without having spent exstra enersy and time. and it is still usefull to me.</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>b_0788</t>
+          <t>a_0788</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Becaus we need food.</t>
+          <t>Becaus we need food .</t>
         </is>
       </c>
     </row>
@@ -9916,12 +9916,12 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>b_0790</t>
+          <t>a_0790</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>The personn takes the bike, goes where he wishes, and leaves the car at his closest bus station.</t>
+          <t>The personn takes the bike , goes where he wishes , and leaves the car at his closest bus station .</t>
         </is>
       </c>
     </row>
@@ -9940,24 +9940,24 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>b_0792</t>
+          <t>a_0792</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>The youth today are aware of their responsibilites as a citizen.</t>
+          <t>The youth today are aware of their responsibilites as a citizen .</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>a_0793</t>
+          <t>b_0793</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>But I disegree with this opinion because often the advertisements do n't speak about the only functions of the product , but it promises other characteristics that they do n't deliver on .</t>
+          <t>But I disegree with this opinion because often the advertisements don't speak about the only functions of the product, but it promises other characteristics that they don't deliver on.</t>
         </is>
       </c>
     </row>
@@ -10012,24 +10012,24 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>b_0798</t>
+          <t>a_0798</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Many studies over the last 50 years have shown that people who have fluoride in their drinking water are considerably less likely to have cavities than people who have nonfluoridated water.</t>
+          <t>Many studies over the last 5 0 years have shown that people who have fluoride in their drinking water are considerably less likely to have cavities than people who have nonfluoridated water .</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>b_0799</t>
+          <t>a_0799</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>And young people spend more time on ther lifestile.</t>
+          <t>And young people spend more time on ther lifestile .</t>
         </is>
       </c>
     </row>
@@ -10048,12 +10048,12 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>b_0801</t>
+          <t>a_0801</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>He thinks differently from other people and he has succeded.</t>
+          <t>He thinks differently from other people and he has succeded .</t>
         </is>
       </c>
     </row>
@@ -10108,12 +10108,12 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>b_0806</t>
+          <t>a_0806</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>In today's world, Compuer skills is the most important life skill.</t>
+          <t>In today 's world , Compuer skills is the most important life skill .</t>
         </is>
       </c>
     </row>
@@ -10144,48 +10144,48 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>b_0809</t>
+          <t>a_0809</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>If they are specialized docters, the docter has done the operation very often before, so he is really talented in his job.</t>
+          <t>If they are specialized docters , the docter has done the operation very often before , so he is really talented in his job .</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>a_0810</t>
+          <t>b_0810</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>So It will be a good situstion .</t>
+          <t>So It will be a good situstion.</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>a_0811</t>
+          <t>b_0811</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>These are several opposing points I observed between the lecture and passage .</t>
+          <t>These are several opposing points I observed between the lecture and passage.</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>b_0812</t>
+          <t>a_0812</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>this shall effect exams.</t>
+          <t>this shall effect exams .</t>
         </is>
       </c>
     </row>
@@ -10228,12 +10228,12 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>b_0816</t>
+          <t>a_0816</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Many Scientists obtained clear results of investigations after the facts were on the table, and before they could even begin to theorise about them.</t>
+          <t>Many Scientists obtained clear results of investigations after the facts were on the table , and before they could even begin to theorise about them .</t>
         </is>
       </c>
     </row>
@@ -10252,12 +10252,12 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>a_0818</t>
+          <t>b_0818</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Video is convenient , but if teachers care about students , using texetbooks works better for students .</t>
+          <t>Video is convenient, but if teachers care about students, using texetbooks works better for students.</t>
         </is>
       </c>
     </row>
@@ -10276,36 +10276,36 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>a_0820</t>
+          <t>b_0820</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>for example , when we talk about speed , it is beteer if they understand it is dangerous instead of learning from an accident .</t>
+          <t>for example, when we talk about speed, it is beteer if they understand it is dangerous instead of learning from an accident.</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>b_0821</t>
+          <t>a_0821</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>Therefore, peaple will be able to live with the automobile sosiety and nature in the future.</t>
+          <t>Therefore , peaple will be able to live with the automobile sosiety and nature in the future .</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>b_0822</t>
+          <t>a_0822</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>Marco Polo used the Persian langage, not Chinese or Mongolian.</t>
+          <t>Marco Polo used the Persian langage , not Chinese or Mongolian .</t>
         </is>
       </c>
     </row>
@@ -10324,12 +10324,12 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>b_0824</t>
+          <t>a_0824</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Futhermore, a tour guide will provide safety and security for the traveller, since they already know the do's and don'ts of the tour.</t>
+          <t>Futhermore , a tour guide will provide safety and security for the traveller , since they already know the do 's and don'ts of the tour .</t>
         </is>
       </c>
     </row>
@@ -10348,24 +10348,24 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>a_0826</t>
+          <t>b_0826</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>-Learn !</t>
+          <t>-Learn!</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>b_0827</t>
+          <t>a_0827</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>There are very successful politicians that have never tried somthing new.</t>
+          <t>There are very successful politicians that have never tried somthing new .</t>
         </is>
       </c>
     </row>
@@ -10384,24 +10384,24 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>b_0829</t>
+          <t>a_0829</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Maybe at the beginning, but after timer other animals in the environment will choose them as their new food.</t>
+          <t>Maybe at the beginning , but after timer other animals in the environment will choose them as their new food .</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>b_0830</t>
+          <t>a_0830</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>Furethermore, the professor denies the reading passage which states that treasure does not exist and that it is just fiction.</t>
+          <t>Furethermore , the professor denies the reading passage which states that treasure does not exist and that it is just fiction .</t>
         </is>
       </c>
     </row>
@@ -10492,12 +10492,12 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>b_0838</t>
+          <t>a_0838</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>Newer vehicles would be something if they could fly the sky, then we needn't be annoyed about trafic jams.</t>
+          <t>Newer vehicles would be something if they could fly the sky , then we need n't be annoyed about trafic jams .</t>
         </is>
       </c>
     </row>
@@ -10588,72 +10588,72 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>b_0846</t>
+          <t>a_0846</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Facts are learned from experinces.</t>
+          <t>Facts are learned from experinces .</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>b_0847</t>
+          <t>a_0847</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>bass is not the only predetor of menhaden, so if people catch more bass, the population of other fish will also increase.</t>
+          <t>bass is not the only predetor of menhaden , so if people catch more bass , the population of other fish will also increase .</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>b_0848</t>
+          <t>a_0848</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>In fact, we will need a lot of places were we can park all these cars, and we will need to do a lot of projects to deal with this increase in cars.</t>
+          <t>In fact , we will need a lot of places were we can park all these cars , and we will need to do a lot of projects to deal with this increase in cars .</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>b_0849</t>
+          <t>a_0849</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>The Government uses that money for public use and safty.</t>
+          <t>The Government uses that money for public use and safty .</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>a_0850</t>
+          <t>b_0850</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>I stated to have an interest in math ; I spent a lot of time trying to solve math problemes and when I got a good score on an exam , it made me have even more passion about math .</t>
+          <t>I stated to have an interest in math; I spent a lot of time trying to solve math problemes and when I got a good score on an exam, it made me have even more passion about math.</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>b_0851</t>
+          <t>a_0851</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>he has a lot of money and name but no family life.</t>
+          <t>he has a lot of money and name but no family life .</t>
         </is>
       </c>
     </row>
@@ -10696,24 +10696,24 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>b_0855</t>
+          <t>a_0855</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>It usually makes them be more postive about doing it.</t>
+          <t>It usually makes them be more postive about doing it .</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>b_0856</t>
+          <t>a_0856</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>both advertisements said that these toothpastes will make your teeth briliant and brighter.</t>
+          <t>both advertisements said that these tooth pastes will make your teeth briliant and brighter .</t>
         </is>
       </c>
     </row>
@@ -10744,60 +10744,60 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>b_0859</t>
+          <t>a_0859</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>First of all, old houses are not necessarily suited to the needs of mordern residents.</t>
+          <t>First of all , old houses are not necessarily suited to the needs of mordern residents .</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>a_0860</t>
+          <t>b_0860</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Actual market requires more specific knowledge that broad knowledge .</t>
+          <t>Actual market requires more specific knowledge that broad knowledge.</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>b_0861</t>
+          <t>a_0861</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Only by braking out of your normal life can you discover new perspectives in your job and your private life.</t>
+          <t>Only by braking out of your normal life can you discover new perspectives in your job and your private life .</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>b_0862</t>
+          <t>a_0862</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Fish firming uses a lot of special products, such as fish meal.</t>
+          <t>Fish firming uses a lot of special products , such as fish meal .</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>b_0863</t>
+          <t>a_0863</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Extending the same example stated above, i can tell you that, during the worst period, Amitabh Bacchan was offered the opportunity to enter politics to take advantage of the publicity that he had gotten and paid heavily for. Although he was very much in need of financial support, Mr. Bacchan rejected this offer only because he knew how polititians played with the imotions of common people.</t>
+          <t>Extending the same example stated above , i can tell you that , during the worst period , Amitabh Bacchan was offered the opportunity to enter politics to take advantage of the publicity that he had gotten and paid heavily for . Although he was very much in need of financial support , Mr. Bacchan rejected this offer only because he knew how polititians played with the imotions of common people .</t>
         </is>
       </c>
     </row>
@@ -10816,12 +10816,12 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>b_0865</t>
+          <t>a_0865</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Alternatively, the Reading passege emphasizes an alternative to prescriptive burning by defining the turm "disking" the fire as clearing out dry and dead shrubs to stimulate the growth of new plant life.</t>
+          <t>Alternatively , the Reading passege emphasizes an alternative to prescriptive burning by defining the turm " disking " the fire as clearing out dry and dead shrubs to stimulate the growth of new plant life .</t>
         </is>
       </c>
     </row>
@@ -10864,48 +10864,48 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>b_0869</t>
+          <t>a_0869</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Younger people are still trying to obtain experince, although the old have it already.</t>
+          <t>Younger people are still trying to obtain experince , although the old have it already .</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>b_0870</t>
+          <t>a_0870</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Take toys, for example; advertisments that target children in particular are the best example of the way advertisements create a false image of the product.</t>
+          <t>Take toys , for example ; advertisments that target children in particular are the best example of the way advertisements create a false image of the product .</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>b_0871</t>
+          <t>a_0871</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>They need cars for many things, such as trasportation, entertainment and business.</t>
+          <t>They need cars for many things , such as trasportation , entertainment and business .</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>b_0872</t>
+          <t>a_0872</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Due to the requirement that men join the army, they have to sacrifise their preciouse youth.</t>
+          <t>Due to the requirement that men join the army , they have to sacrifise their preciouse youth .</t>
         </is>
       </c>
     </row>
@@ -10936,24 +10936,24 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>b_0875</t>
+          <t>a_0875</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>In such a situaction, there is no other way.</t>
+          <t>In such a situaction , there is no other way .</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>b_0876</t>
+          <t>a_0876</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Even the magnitides on Mars provide no evidence of life on Mars.</t>
+          <t>Even the magnitides on Mars provide no evidence of life on Mars .</t>
         </is>
       </c>
     </row>
@@ -10984,12 +10984,12 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>b_0879</t>
+          <t>a_0879</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Because you share only a single interest, thus makes you a loner.</t>
+          <t>Because you share only a single interest , thus makes you a loner .</t>
         </is>
       </c>
     </row>
@@ -11032,12 +11032,12 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>b_0883</t>
+          <t>a_0883</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>if they do something, they go for another untill they know how it works and what is useful to think of it.</t>
+          <t>if they do something , they go for another untill they know how it works and what is useful to think of it .</t>
         </is>
       </c>
     </row>
@@ -11068,12 +11068,12 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>a_0886</t>
+          <t>b_0886</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>In my opinion , if someone thinks one thing is more important than the other , why not focuse on the one ?</t>
+          <t>In my opinion, if someone thinks one thing is more important than the other, why not focuse on the one?</t>
         </is>
       </c>
     </row>
@@ -11092,12 +11092,12 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>b_0888</t>
+          <t>a_0888</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>However, I woud prefer to travel by myself because with good preparation it can be filled with joy.</t>
+          <t>However , I woud prefer to travel by myself because with good preparation it can be filled with joy .</t>
         </is>
       </c>
     </row>
@@ -11116,12 +11116,12 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>b_0890</t>
+          <t>a_0890</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>Althogh some people say that the treasures have already been found.</t>
+          <t>Althogh some people say that the treasures have already been found .</t>
         </is>
       </c>
     </row>
@@ -11164,24 +11164,24 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>b_0894</t>
+          <t>a_0894</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>The First effect is grobal warming.</t>
+          <t>The First effect is grobal warming .</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>b_0895</t>
+          <t>a_0895</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>So, Ho Chi Minh city will develope.</t>
+          <t>So , Ho Chi Minh city will develope .</t>
         </is>
       </c>
     </row>
@@ -11284,12 +11284,12 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>b_0904</t>
+          <t>a_0904</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>Based on my past experiences, some lectures are completely baed on facts, and the chance for me to apply that knowledge is rare.</t>
+          <t>Based on my past experiences , some lectures are completely baed on facts , and the chance for me to apply that knowledge is rare .</t>
         </is>
       </c>
     </row>
@@ -11320,24 +11320,24 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>a_0907</t>
+          <t>b_0907</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>for example , if you are attempting to study arts and scienses and get equalifications in both , you are an extraordinary creature .</t>
+          <t>for example, if you are attempting to study arts and scienses and get equalifications in both, you are an extraordinary creature.</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>a_0908</t>
+          <t>b_0908</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>So in this field , it is very important to understand all the concepts and idease they gave us and use these to solve problems .</t>
+          <t>So in this field, it is very important to understand all the concepts and idease they gave us and use these to solve problems.</t>
         </is>
       </c>
     </row>
@@ -11380,12 +11380,12 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>b_0912</t>
+          <t>a_0912</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>Third, the professor agrees that gas prices in the United States are cheep and should be raised to safe the enviroment and protect people's health.</t>
+          <t>Third , the professor agrees that gas prices in the United States are cheep and should be raised to safe the enviroment and protect people 's health .</t>
         </is>
       </c>
     </row>
@@ -11404,12 +11404,12 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>b_0914</t>
+          <t>a_0914</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>I think it's harder for successful people to take risks because thay coluld lose much more then others.</t>
+          <t>I think it 's harder for successful people to take risks because thay coluld lose much more then others .</t>
         </is>
       </c>
     </row>
@@ -11428,24 +11428,24 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>b_0916</t>
+          <t>a_0916</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>At some point, they have to face failures and endure a lot of strugles.</t>
+          <t>At some point , they have to face failures and endure a lot of strugles .</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>b_0917</t>
+          <t>a_0917</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Because it transmits the hebitats from Eastern Europe to different places in the world.</t>
+          <t>Because it transmits the hebitats from Eastern Europe to different places in the world .</t>
         </is>
       </c>
     </row>
@@ -11464,24 +11464,24 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>b_0919</t>
+          <t>a_0919</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>It is also undeniable that if a man has diversifed knowledge, it would be used immediately.</t>
+          <t>It is also undeniable that if a man has diversifed knowledge , it would be used immediately .</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>b_0920</t>
+          <t>a_0920</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>So, some people use cars only by moving somewher.</t>
+          <t>So , some people use cars only by moving somewher .</t>
         </is>
       </c>
     </row>
@@ -11572,12 +11572,12 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>b_0928</t>
+          <t>a_0928</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>First, an advertissment made me buy something unplanned.</t>
+          <t>First , an advertissment made me buy something unplanned .</t>
         </is>
       </c>
     </row>
@@ -11620,12 +11620,12 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>b_0932</t>
+          <t>a_0932</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>Who we mach them togather.</t>
+          <t>Who we mach them togather .</t>
         </is>
       </c>
     </row>
@@ -11656,36 +11656,36 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>b_0935</t>
+          <t>a_0935</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>We don't usually study these subject very deaply.</t>
+          <t>We do n't usually study these subject very deaply .</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>b_0936</t>
+          <t>a_0936</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>They may go to the house, whitch the elderly person lives, and help to eat food and walk.</t>
+          <t>They may go to the house , whitch the elderly person lives , and help to eat food and walk .</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>a_0937</t>
+          <t>b_0937</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>It would be a really wasteful idean .</t>
+          <t>It would be a really wasteful idean.</t>
         </is>
       </c>
     </row>
@@ -11716,84 +11716,84 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>b_0940</t>
+          <t>a_0940</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>he usually brings a book, and will ask someone something if he wants to understand the bood.</t>
+          <t>he usually brings a book , and will ask someone something if he wants to understand the bood .</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>b_0941</t>
+          <t>a_0941</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>It will be always be able to puls things for them.</t>
+          <t>It will be always be able to puls things for them .</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>b_0942</t>
+          <t>a_0942</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>I do not want to go to the Effel Tower in Paris or The Statue of Liberty in New York when I travel because they are too famous; I already heard and saw about them.</t>
+          <t>I do not want to go to the Effel Tower in Paris or The Statue of Liberty in New York when I travel because they are too famous ; I already heard and saw about them .</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>b_0943</t>
+          <t>a_0943</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>In this case, the advertisement totaly makes an impact in that baby.</t>
+          <t>In this case , the advertisement totaly makes an impact in that baby .</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>b_0944</t>
+          <t>a_0944</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>Lastly, business owners thought factories would help reduce their overrall business expenses by reducing their transportation costs.</t>
+          <t>Lastly , business owners thought factories would help reduce their overrall business expenses by reducing their transportation costs .</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>b_0945</t>
+          <t>a_0945</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>This person guides you through paradise and takes you to wonderfull places.</t>
+          <t>This person guides you through paradise and takes you to wonderfull places .</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>b_0946</t>
+          <t>a_0946</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>Really successful people gained their fortune by doing somethig new, something that no one else has ever done before, and that means that nobody knew how to do it well, so that was their risk.</t>
+          <t>Really successful people gained their fortune by doing somethig new , something that no one else has ever done before , and that means that nobody knew how to do it well , so that was their risk .</t>
         </is>
       </c>
     </row>
@@ -11824,48 +11824,48 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>b_0949</t>
+          <t>a_0949</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>Nowadays, drinking soda has become an adiction for most people.</t>
+          <t>Nowadays , drinking soda has become an adiction for most people .</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>b_0950</t>
+          <t>a_0950</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>If you want to actally know somebody, you can spend the whole day with that person or place but if you don't, you do not even speak to that person or even go there.</t>
+          <t>If you want to actally know somebody , you can spend the whole day with that person or place but if you do n't , you do not even speak to that person or even go there .</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>b_0951</t>
+          <t>a_0951</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>I don't think cars will be replaced completely by new automobile innovations, but they will certaily be in fewer numbers.</t>
+          <t>I do n't think cars will be replaced completely by new automobile innovations , but they will certaily be in fewer numbers .</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>b_0952</t>
+          <t>a_0952</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>Altough life is never easy, the age doesn't depend on when you can be protected or prevented from bad things.</t>
+          <t>Altough life is never easy , the age does n't depend on when you can be protected or prevented from bad things .</t>
         </is>
       </c>
     </row>
@@ -11920,24 +11920,24 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>b_0957</t>
+          <t>a_0957</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>In order to get an ecocertification, many wood companies around the world have introduced new ecologically friendly practices.</t>
+          <t>In order to get an ecocertification , many wood companies around the world have introduced new ecologically friendly practices .</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>b_0958</t>
+          <t>a_0958</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>For exemple, you were working like a broadcaster but in the office and city where you are working.</t>
+          <t>For exemple , you were working like a broadcaster but in the office and city where you are working .</t>
         </is>
       </c>
     </row>
@@ -11968,36 +11968,36 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>b_0961</t>
+          <t>a_0961</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>In old times, familes tended to live in the same place for ages.</t>
+          <t>In old times , familes tended to live in the same place for ages .</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>b_0962</t>
+          <t>a_0962</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>I think that young peopie are not able to think as deeply about things as older people.</t>
+          <t>I think that young peopie are not able to think as deeply about things as older people .</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>b_0963</t>
+          <t>a_0963</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>My friends are to celebrate the pary.</t>
+          <t>My friends are to celebrate the pary .</t>
         </is>
       </c>
     </row>
@@ -12040,12 +12040,12 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>a_0967</t>
+          <t>b_0967</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>The identification as yong or old is not important .</t>
+          <t>The identification as yong or old is not important.</t>
         </is>
       </c>
     </row>
@@ -12076,24 +12076,24 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>b_0970</t>
+          <t>a_0970</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>He may fell afraid or terrible when the same thing happens to him.</t>
+          <t>He may fell afraid or terrible when the same thing happens to him .</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>b_0971</t>
+          <t>a_0971</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>When older people think like that, it makes big problems with yong people.</t>
+          <t>When older people think like that , it makes big problems with yong people .</t>
         </is>
       </c>
     </row>
@@ -12112,24 +12112,24 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>b_0973</t>
+          <t>a_0973</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>Afther that, they have to find a well-paying job.</t>
+          <t>Afther that , they have to find a well-paying job .</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>a_0974</t>
+          <t>b_0974</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>But as for myself , I 'm going to get to my brother alwys talks about it and i agree with that his knowledge .</t>
+          <t>But as for myself, I'm going to get to my brother alwys talks about it and i agree with that his knowledge.</t>
         </is>
       </c>
     </row>
@@ -12148,12 +12148,12 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>b_0976</t>
+          <t>a_0976</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>The cost of the undergroud is very cheap in some countries, such as France.</t>
+          <t>The cost of the undergroud is very cheap in some countries , such as France .</t>
         </is>
       </c>
     </row>
@@ -12208,12 +12208,12 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>b_0981</t>
+          <t>a_0981</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>Movies and oher television shows provide a lot of information about real life.</t>
+          <t>Movies and oher television shows provide a lot of information about real life .</t>
         </is>
       </c>
     </row>
@@ -12244,12 +12244,12 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>b_0984</t>
+          <t>a_0984</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>Scenes of violence can have an affect on them.</t>
+          <t>Scenes of violence can have an affect on them .</t>
         </is>
       </c>
     </row>
@@ -12268,12 +12268,12 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>b_0986</t>
+          <t>a_0986</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>if it does, you will get some misunderstood idea about the acticle instead of the original one.</t>
+          <t>if it does , you will get some misunderstood idea about the acticle instead of the original one .</t>
         </is>
       </c>
     </row>
@@ -12340,24 +12340,24 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>b_0992</t>
+          <t>a_0992</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>No other transportation concept has been as successful as the car, not only because of the goog street and highway system throughout the United States and Europe, but also because of the fact that people love their cars.</t>
+          <t>No other transportation concept has been as successful as the car , not only because of the goog street and highway system throughout the United States and Europe , but also because of the fact that people love their cars .</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>b_0993</t>
+          <t>a_0993</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>That's why he is a legend in these days, and why people repect him.</t>
+          <t>That 's why he is a legend in these days , and why people repect him .</t>
         </is>
       </c>
     </row>
@@ -12388,12 +12388,12 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>b_0996</t>
+          <t>a_0996</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>People tend to choose other media types, and that is why litterature is in danger.</t>
+          <t>People tend to choose other media types , and that is why litterature is in danger .</t>
         </is>
       </c>
     </row>
@@ -12436,12 +12436,12 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>b_1000</t>
+          <t>a_1000</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>A person with broad knowlege will help him with the renovation.</t>
+          <t>A person with broad knowlege will help him with the renovation .</t>
         </is>
       </c>
     </row>
@@ -12460,12 +12460,12 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>b_1002</t>
+          <t>a_1002</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>For example, if the city says that 8am~9am is the busiest time, than workers would argue that they drive a bit later.</t>
+          <t>For example , if the city says that 8am~9 am is the busiest time , than workers would argue that they drive a bit later .</t>
         </is>
       </c>
     </row>
@@ -12484,36 +12484,36 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>b_1004</t>
+          <t>a_1004</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>In malysia, there are a lot of cars.</t>
+          <t>In malysia , there are a lot of cars .</t>
         </is>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>b_1005</t>
+          <t>a_1005</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>So they are free to do all sorts of things, even if those things are cinsidered to be dangerous or irresponsible, such as bungee-jumping.</t>
+          <t>So they are free to do all sorts of things , even if those things are cinsidered to be dangerous or irresponsible , such as bungee-jumping .</t>
         </is>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>b_1006</t>
+          <t>a_1006</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>I think most people will like that in a busy world, but I don't thing it will happen within the next twenty years.</t>
+          <t>I think most people will like that in a busy world , but I do n't thing it will happen within the next twenty years .</t>
         </is>
       </c>
     </row>
@@ -12556,24 +12556,24 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>a_1010</t>
+          <t>b_1010</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>An example that would make this categorization problemmatic is an architect .</t>
+          <t>An example that would make this categorization problemmatic is an architect.</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>a_1011</t>
+          <t>b_1011</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>also markting can make some adjustments regarding the change .</t>
+          <t>also markting can make some adjustments regarding the change.</t>
         </is>
       </c>
     </row>
@@ -12616,24 +12616,24 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>b_1015</t>
+          <t>a_1015</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>They would not be able to discuss spesific problems because they do not know them.</t>
+          <t>They would not be able to discuss spesific problems because they do not know them .</t>
         </is>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>b_1016</t>
+          <t>a_1016</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>By the same token, people will learn many different things just by doing, but they just learn its appeal and do not get any crutial information or wisdom from it.</t>
+          <t>By the same token , people will learn many different things just by doing , but they just learn its appeal and do not get any crutial information or wisdom from it .</t>
         </is>
       </c>
     </row>
@@ -12664,12 +12664,12 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>b_1019</t>
+          <t>a_1019</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>It is a goverment rule that attending this seminar is compulsory.</t>
+          <t>It is a goverment rule that attending this seminar is compulsory .</t>
         </is>
       </c>
     </row>
@@ -12700,12 +12700,12 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>b_1022</t>
+          <t>a_1022</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Court coats are very high and many desputed tickets are seen.</t>
+          <t>Court coats are very high and many desputed tickets are seen .</t>
         </is>
       </c>
     </row>
@@ -12748,24 +12748,24 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>b_1026</t>
+          <t>a_1026</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Unfortunately, in most countries the functioning of public transport is not perfecty organised.</t>
+          <t>Unfortunately , in most countries the functioning of public transport is not perfecty organised .</t>
         </is>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>b_1027</t>
+          <t>a_1027</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>The public transpotation in the city may not be able to cope with the huge flow of people.</t>
+          <t>The public transpotation in the city may not be able to cope with the huge flow of people .</t>
         </is>
       </c>
     </row>
@@ -12796,12 +12796,12 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>a_1030</t>
+          <t>b_1030</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>In this sense , I would introduce the concepts of two aspects with a datailed analysis , and then it will come to the conclusion .</t>
+          <t>In this sense, I would introduce the concepts of two aspects with a datailed analysis, and then it will come to the conclusion.</t>
         </is>
       </c>
     </row>
@@ -12832,12 +12832,12 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>b_1033</t>
+          <t>a_1033</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>you have to teach your child since he or she was until they graw up.</t>
+          <t>you have to teach your child since he or she was until they graw up .</t>
         </is>
       </c>
     </row>
@@ -12856,12 +12856,12 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>b_1035</t>
+          <t>a_1035</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>For example, the subway in New York, the bullet trains in Japan, the underground tube trains in Singapore, and the sky trains in Bangkok travel at lightening speed.</t>
+          <t>For example , the subway in New York , the bullet trains in Japan , the underground tube trains in Singapore , and the sky trains in Bangkok travel at lightening speed .</t>
         </is>
       </c>
     </row>
@@ -12880,12 +12880,12 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>b_1037</t>
+          <t>a_1037</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Young people nowdays don't devote enough time to helping their communities.</t>
+          <t>Young people nowdays do n't devote enough time to helping their communities .</t>
         </is>
       </c>
     </row>
@@ -12928,12 +12928,12 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>b_1041</t>
+          <t>a_1041</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>secondly, it is an unfair action because it will effect low income Americans.</t>
+          <t>secondly , it is an unfair action because it will effect low income Americans .</t>
         </is>
       </c>
     </row>
@@ -12964,48 +12964,48 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>b_1044</t>
+          <t>a_1044</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>However, there are those that thing that when a person is forty years old they are an older person.</t>
+          <t>However , there are those that thing that when a person is forty years old they are an older person .</t>
         </is>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>b_1045</t>
+          <t>a_1045</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>It is worthy noting that not everybody will succeed when taking a risk, but that is not enough of a reason to deteir anybody who wishes to take one.</t>
+          <t>It is worthy noting that not everybody will succeed when taking a risk , but that is not enough of a reason to deteir anybody who wishes to take one .</t>
         </is>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>b_1046</t>
+          <t>a_1046</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>apparently I have a Japanese friend in Japen, and his name is Tomo.</t>
+          <t>apparently I have a Japanese friend in Japen , and his name is Tomo .</t>
         </is>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>b_1047</t>
+          <t>a_1047</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>when they do some work, they think they have to fine work in time.</t>
+          <t>when they do some work , they think they have to fine work in time .</t>
         </is>
       </c>
     </row>
@@ -13024,12 +13024,12 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>b_1049</t>
+          <t>a_1049</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Although there are some rules for protecting young people, such as warnings of ages in movies and previews about the bad aspects of programs, it is just made for little kids, not young peole like high school or university students.</t>
+          <t>Although there are some rules for protecting young people , such as warnings of ages in movies and previews about the bad aspects of programs , it is just made for little kids , not young peole like high school or university students .</t>
         </is>
       </c>
     </row>
@@ -13048,24 +13048,24 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>b_1051</t>
+          <t>a_1051</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>This demonstrates the undeniable fact that it is bebeficial to have differnt experiences.</t>
+          <t>This demonstrates the undeniable fact that it is bebeficial to have differnt experiences .</t>
         </is>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>b_1052</t>
+          <t>a_1052</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>The government is rising the tax on gasoline.</t>
+          <t>The government is rising the tax on gasoline .</t>
         </is>
       </c>
     </row>
@@ -13084,24 +13084,24 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>b_1054</t>
+          <t>a_1054</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Travelling in a group, especially with a tour guide, helps make our trip more productive.</t>
+          <t>Travelling in a group , especially with a tour guide , helps make our trip more productive .</t>
         </is>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>b_1055</t>
+          <t>a_1055</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>When they got down to the forest then produced a fire.</t>
+          <t>When they got down to the forest then produced a fire .</t>
         </is>
       </c>
     </row>
@@ -13156,12 +13156,12 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>b_1060</t>
+          <t>a_1060</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>In America a lot of families have more than one car, and futhermore, some of them have three or four.</t>
+          <t>In America a lot of families have more than one car , and futhermore , some of them have three or four .</t>
         </is>
       </c>
     </row>
@@ -13204,12 +13204,12 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>b_1064</t>
+          <t>a_1064</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Therefore, the french revolution happend in the middle-age in Europe because of these reasons.</t>
+          <t>Therefore , the french revolution happend in the middle-age in Europe because of these reasons .</t>
         </is>
       </c>
     </row>
@@ -13264,36 +13264,36 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>a_1069</t>
+          <t>b_1069</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Help others and we will all live in a confortable home .</t>
+          <t>Help others and we will all live in a confortable home.</t>
         </is>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>a_1070</t>
+          <t>b_1070</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>I remember that from a alecture I iattended .</t>
+          <t>I remember that from a alecture I iattended.</t>
         </is>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>b_1071</t>
+          <t>a_1071</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Even through everthing, when there is a life there is hope.</t>
+          <t>Even through everthing , when there is a life there is hope .</t>
         </is>
       </c>
     </row>
@@ -13312,24 +13312,24 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>b_1073</t>
+          <t>a_1073</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>It is said that the zebra mussel from the bottom of the ship moved to the fresh wather and devastated the ecosystem.</t>
+          <t>It is said that the zebra mussel from the bottom of the ship moved to the freshwather and devastated the ecosystem .</t>
         </is>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>b_1074</t>
+          <t>a_1074</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>This implies that there can be instances were no such overstating takes place at all.</t>
+          <t>This implies that there can be instances were no such overstating takes place at all .</t>
         </is>
       </c>
     </row>
@@ -13348,12 +13348,12 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>b_1076</t>
+          <t>a_1076</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>It is not worth it to jump into a pool without knowing how to swim since you may be unable to breath.</t>
+          <t>It is not worth it to jump into a pool without knowing how to swim since you may be unable to breath .</t>
         </is>
       </c>
     </row>
@@ -13408,12 +13408,12 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>b_1081</t>
+          <t>a_1081</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Advertising can be misused not only by corporations, but also by the government, for exemple, the nazi regime.</t>
+          <t>Advertising can be misused not only by corporations , but also by the government , for exemple , the nazi regime .</t>
         </is>
       </c>
     </row>
@@ -13432,12 +13432,12 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>b_1083</t>
+          <t>a_1083</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Such peole impressed other people through their strong well and devotion to duty.</t>
+          <t>Such peole impressed other people through their strong well and devotion to duty .</t>
         </is>
       </c>
     </row>
@@ -13480,48 +13480,48 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>b_1087</t>
+          <t>a_1087</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>The disability of doing the things that desired make olders unhappy.</t>
+          <t>The disability of doing the things that desired make olders unhappy .</t>
         </is>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>b_1088</t>
+          <t>a_1088</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>However, I want to go to the U.S.A so that I can study and life in my dream country and I want to have my family with me so that I will never be alony.</t>
+          <t>However , I want to go to the U.S.A so that I can study and life in my dream country and I want to have my family with me so that I will never be alony .</t>
         </is>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>b_1089</t>
+          <t>a_1089</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>I do not know if American teathers do, but some Japanese teachers speak factually during class.</t>
+          <t>I do not know if American teathers do , but some Japanese teachers speak factually during class .</t>
         </is>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>b_1090</t>
+          <t>a_1090</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Because of this, I prefer studying concepts and ideas more thad learnig facts.</t>
+          <t>Because of this , I prefer studying concepts and ideas more thad learnig facts .</t>
         </is>
       </c>
     </row>
@@ -13540,12 +13540,12 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>b_1092</t>
+          <t>a_1092</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>we are watching a movie to earn something.</t>
+          <t>we are watching a movie to earn something .</t>
         </is>
       </c>
     </row>
@@ -13564,36 +13564,36 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>b_1094</t>
+          <t>a_1094</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>It has some problems that it can effect to humens.</t>
+          <t>It has some problems that it can effect to humens .</t>
         </is>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>b_1095</t>
+          <t>a_1095</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>It mentions that it has now reached some oarts of North America.</t>
+          <t>It mentions that it has now reached some oarts of North America .</t>
         </is>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>b_1096</t>
+          <t>a_1096</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Many people think that treasure never existed, but in reality it exits.</t>
+          <t>Many people think that treasure never existed , but in reality it exits .</t>
         </is>
       </c>
     </row>
@@ -13648,12 +13648,12 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>b_1101</t>
+          <t>a_1101</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>In the twenty years, they can also give us better cars to use less resources and give us much more convenient tools for our travelling.</t>
+          <t>In the twenty years , they can also give us better cars to use less resources and give us much more convenient tools for our travelling .</t>
         </is>
       </c>
     </row>
@@ -13684,12 +13684,12 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>b_1104</t>
+          <t>a_1104</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>For example, during the traffic jam, the transit can't accomodate such large amount of people, how would the clerks.</t>
+          <t>For example , during the traffic jam , the transit ca n't accomodate such large amount of people , how would the clerks .</t>
         </is>
       </c>
     </row>
@@ -13732,36 +13732,36 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>b_1108</t>
+          <t>a_1108</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>For me there are very few friends or cklassmates that I would rather have as a friend.</t>
+          <t>For me there are very few friends or cklassmates that I would rather have as a friend .</t>
         </is>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>b_1109</t>
+          <t>a_1109</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Attendence does not mean that teenegers are fully participating in class.</t>
+          <t>Attendence does not mean that teenegers are fully participating in class .</t>
         </is>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>b_1110</t>
+          <t>a_1110</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>In studing the processes underlying biochemical pathways, knowledge of biochemistry is required, which is an integration of biology and chemistry.</t>
+          <t>In studing the processes underlying biochemical pathways , knowledge of biochemistry is required , which is an integration of biology and chemistry .</t>
         </is>
       </c>
     </row>
@@ -13780,24 +13780,24 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>b_1112</t>
+          <t>a_1112</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>it contributes to air pollution and arising temperatures.</t>
+          <t>it contributes to air pollution and arising temperatures .</t>
         </is>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>b_1113</t>
+          <t>a_1113</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>For instance, the birds are not usually trying to remeber the subjects what they have passed by, such as a stone, a building, or even a small house.</t>
+          <t>For instance , the birds are not usually trying to remeber the subjects what they have passed by , such as a stone , a building , or even a small house .</t>
         </is>
       </c>
     </row>
@@ -13852,12 +13852,12 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>a_1118</t>
+          <t>b_1118</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>So it depends on the defferent nature of the body .</t>
+          <t>So it depends on the defferent nature of the body.</t>
         </is>
       </c>
     </row>
@@ -13876,36 +13876,36 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>b_1120</t>
+          <t>a_1120</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Because it rains more and the plants grow well, the Puebo can make full use of it.</t>
+          <t>Because it rains more and the plants grow well , the Puebo can make full use of it .</t>
         </is>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>a_1121</t>
+          <t>b_1121</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Additionaly , popular movies stars or famous people in the advertisements attract people .</t>
+          <t>Additionaly, popular movies stars or famous people in the advertisements attract people.</t>
         </is>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>b_1122</t>
+          <t>a_1122</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Let us think of music as a metaphor for all the areas of knowledge, and the different instruments as metaphors for all the seperate disciplines.</t>
+          <t>Let us think of music as a metaphor for all the areas of knowledge , and the different instruments as metaphors for all the seperate disciplines .</t>
         </is>
       </c>
     </row>
@@ -13924,36 +13924,36 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>b_1124</t>
+          <t>a_1124</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Many people have many reasons, like to see abroad or to have diffrent experiences, but their purposes all have something in common.</t>
+          <t>Many people have many reasons , like to see abroad or to have diffrent experiences , but their purposes all have something in common .</t>
         </is>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>b_1125</t>
+          <t>a_1125</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>We alwayse joke around or do something stupid.</t>
+          <t>We alwayse joke around or do something stupid .</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>b_1126</t>
+          <t>a_1126</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Last but not least, zenra mussels are likely to cause a decline in the overall fish population in habitats where they become dominant.</t>
+          <t>Last but not least , zenra mussels are likely to cause a decline in the overall fish population in habitats where they become dominant .</t>
         </is>
       </c>
     </row>
@@ -13972,24 +13972,24 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>b_1128</t>
+          <t>a_1128</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Therefore, we think ourselvese that mind care of society is front do it.</t>
+          <t>Therefore , we think ourselvese that mind care of society is front do it .</t>
         </is>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>b_1129</t>
+          <t>a_1129</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>The population explosion is another factor catalysing the consumption of energy resources.</t>
+          <t>The population explosion is another factor catalysing the consumption of energy resources .</t>
         </is>
       </c>
     </row>
@@ -14008,12 +14008,12 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>b_1131</t>
+          <t>a_1131</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>As I see it, there will be a lot of research done in the future to find such alternitive energies, which will also be environmental-friendly, as well as cheaper.</t>
+          <t>As I see it , there will be a lot of research done in the future to find such alternitive energies , which will also be environmental-friendly , as well as cheaper .</t>
         </is>
       </c>
     </row>
@@ -14032,36 +14032,36 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>a_1133</t>
+          <t>b_1133</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>bacause I have a broad knowledge .</t>
+          <t>bacause I have a broad knowledge.</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>b_1134</t>
+          <t>a_1134</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>If everone in the city uses their own cars, the city will become seriously polluted by the smoke.</t>
+          <t>If everone in the city uses their own cars , the city will become seriously polluted by the smoke .</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>b_1135</t>
+          <t>a_1135</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>It is rather than to give them strong medicins to them.</t>
+          <t>It is rather than to give them strong medicins to them .</t>
         </is>
       </c>
     </row>
@@ -14104,36 +14104,36 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>b_1139</t>
+          <t>a_1139</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>they are the boney and vital part of the society.</t>
+          <t>they are the boney and vital part of the society .</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>b_1140</t>
+          <t>a_1140</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>My personal perception is that such a behaviour is damaging to a young person's personality, since it promotes uniformity and conformity, rather than creativity and innovation.</t>
+          <t>My personal perception is that such a behaviour is damaging to a young person 's personality , since it promotes uniformity and conformity , rather than creativity and innovation .</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>b_1141</t>
+          <t>a_1141</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Every house nowdays has a computer, mobile phone, etc. and this is the way today's man wants to live.</t>
+          <t>Every house nowdays has a computer , mobile phone , etc . and this is the way today 's man wants to live .</t>
         </is>
       </c>
     </row>
@@ -14224,12 +14224,12 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>a_1149</t>
+          <t>b_1149</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>that would be a frequently asked qeuestion , so to answer this question we should be aware of the facts .</t>
+          <t>that would be a frequently asked qeuestion, so to answer this question we should be aware of the facts.</t>
         </is>
       </c>
     </row>
@@ -14284,24 +14284,24 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>a_1154</t>
+          <t>b_1154</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>For exemple , it will be easier for people to concentrate on a subject such as geology while having a broad knowledge of many subjects , than to try to concentrate on geology after having studied litterature .</t>
+          <t>For exemple, it will be easier for people to concentrate on a subject such as geology while having a broad knowledge of many subjects, than to try to concentrate on geology after having studied litterature.</t>
         </is>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>b_1155</t>
+          <t>a_1155</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>You can buy a vavilla cake in an upscale store and another vanilla cake in the regular store.</t>
+          <t>You can buy a vavilla cake in an upscale store and another vanilla cake in the regular store .</t>
         </is>
       </c>
     </row>
@@ -14368,36 +14368,36 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>b_1161</t>
+          <t>a_1161</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>First, we can protect our enviroment by saving oil and gas.</t>
+          <t>First , we can protect our enviroment by saving oil and gas .</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>a_1162</t>
+          <t>b_1162</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>And I completely disagree with what the auther wants to say .</t>
+          <t>And I completely disagree with what the auther wants to say.</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>b_1163</t>
+          <t>a_1163</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Think about it: If you are 50~60 years old you always think about your health.</t>
+          <t>Think about it : If you are 50~60 years old you always think about your health .</t>
         </is>
       </c>
     </row>
@@ -14536,12 +14536,12 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>b_1175</t>
+          <t>a_1175</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>In my opinion, i agee with the statement; most advertisements make products seem much better than they really are.</t>
+          <t>In my opinion , i agee with the statement ; most advertisements make products seem much better than they really are .</t>
         </is>
       </c>
     </row>
@@ -14584,24 +14584,24 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>b_1179</t>
+          <t>a_1179</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Bus, Subway, and even plane are means of travelling that can be used in a lot of areas.</t>
+          <t>Bus , Subway , and even plane are means of travelling that can be used in a lot of areas .</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>b_1180</t>
+          <t>a_1180</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Also, it is more comfotable to be moving.</t>
+          <t>Also , it is more comfotable to be moving .</t>
         </is>
       </c>
     </row>
@@ -14644,12 +14644,12 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>b_1184</t>
+          <t>a_1184</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>This fast paced economic growth, which can also be observed in a large number of developing nations, has brought about an increase in per capita income and imroved lifestyles for individuals.</t>
+          <t>This fast paced economic growth , which can also be observed in a large number of developing nations , has brought about an increase in per capita income and imroved lifestyles for individuals .</t>
         </is>
       </c>
     </row>
@@ -14692,36 +14692,36 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>a_1188</t>
+          <t>b_1188</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>for example , a researcher that wants to be successfull must take risks .</t>
+          <t>for example, a researcher that wants to be successfull must take risks.</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>b_1189</t>
+          <t>a_1189</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>The legs of all modern endotherms are undernearth the body.</t>
+          <t>The legs of all modern endotherms are undernearth the body .</t>
         </is>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>b_1190</t>
+          <t>a_1190</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>However, the lecturer says that the location was described vaguely because the antient people wanted to keep the location of the treasure secret.</t>
+          <t>However , the lecturer says that the location was described vaguely because the antient people wanted to keep the location of the treasure secret .</t>
         </is>
       </c>
     </row>
@@ -14740,12 +14740,12 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>b_1192</t>
+          <t>a_1192</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>For exsample, I like to go to a big city like New York.</t>
+          <t>For exsample , I like to go to a big city like New York .</t>
         </is>
       </c>
     </row>
@@ -14764,12 +14764,12 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>a_1194</t>
+          <t>b_1194</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Thus , we can easily remember this formura without spending exstra enersy and time. and it is still usefull to me .</t>
+          <t>Thus, we can easily remember this formura without spending exstra enersy and time. and it is still usefull to me.</t>
         </is>
       </c>
     </row>
@@ -14788,12 +14788,12 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>b_1196</t>
+          <t>a_1196</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Becaus we need food.</t>
+          <t>Becaus we need food .</t>
         </is>
       </c>
     </row>
@@ -14812,48 +14812,48 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>b_1198</t>
+          <t>a_1198</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>The personn takes the bike, goes where he wishes and leaves the car near the closest bus station.</t>
+          <t>The personn takes the bike , goes where he wishes and leaves the car near the closest bus station .</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>b_1199</t>
+          <t>a_1199</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>And I am going to anothere country.</t>
+          <t>And I am going to anothere country .</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>b_1200</t>
+          <t>a_1200</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>The youth today are aware of their responsibilites as a citizen.</t>
+          <t>The youth today are aware of their responsibilites as a citizen .</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>a_1201</t>
+          <t>b_1201</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>But I disegree with this opinion because often the advertisement does n't speak about the function of the product but it promises other characteristics that do n't depend on it .</t>
+          <t>But I disegree with this opinion because often the advertisement doesn't speak about the function of the product but it promises other characteristics that don't depend on it.</t>
         </is>
       </c>
     </row>
@@ -14920,24 +14920,24 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>b_1207</t>
+          <t>a_1207</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Many studies over the last 50 years have shown that people who have fluoride in their drinking water have considerably less cavities than people who have been drinking nonfluoridated water.</t>
+          <t>Many studies over the last 5 0 years have shown that people who have fluoride in their drinking water have considerably less cavities than people who have been drinking nonfluoridated water .</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>b_1208</t>
+          <t>a_1208</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>And young people spend more time pursuing this lifestile.</t>
+          <t>And young people spend more time pursuing this lifestile .</t>
         </is>
       </c>
     </row>
@@ -14956,12 +14956,12 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>b_1210</t>
+          <t>a_1210</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>He thinks differently from other people and he succeded.</t>
+          <t>He thinks differently from other people and he succeded .</t>
         </is>
       </c>
     </row>
@@ -15064,12 +15064,12 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>b_1219</t>
+          <t>a_1219</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>If there are specialized docters that have done the operation many times before, they are really talented in their jobs.</t>
+          <t>If there are specialized docters that have done the operation many times before , they are really talented in their jobs .</t>
         </is>
       </c>
     </row>
@@ -15148,12 +15148,12 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>b_1226</t>
+          <t>a_1226</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>The placebo effect is not an illusion, it's real, so the drug was effected by the placebo effect.</t>
+          <t>The placebo effect is not an illusion , it 's real , so the drug was effected by the placebo effect .</t>
         </is>
       </c>
     </row>
@@ -15172,12 +15172,12 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>b_1228</t>
+          <t>a_1228</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Many Scientists obtained clear results of investigations after the facts were on the table, before they could even begin to theorise about them.</t>
+          <t>Many Scientists obtained clear results of investigations after the facts were on the table , before they could even begin to theorise about them .</t>
         </is>
       </c>
     </row>
@@ -15196,12 +15196,12 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>a_1230</t>
+          <t>b_1230</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Video is convenient , but if teachers are concerned about students , using texetbooks can give students good abilities .</t>
+          <t>Video is convenient, but if teachers are concerned about students, using texetbooks can give students good abilities.</t>
         </is>
       </c>
     </row>
@@ -15220,12 +15220,12 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>a_1232</t>
+          <t>b_1232</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>for example , when we talk about speed they must anderstand why it is dangerous ; it is beteer than if they have an accident and after that they learn .</t>
+          <t>for example, when we talk about speed they must anderstand why it is dangerous; it is beteer than if they have an accident and after that they learn.</t>
         </is>
       </c>
     </row>
@@ -15244,12 +15244,12 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>b_1234</t>
+          <t>a_1234</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Marco Polo used Persian langage, not Chinese or Mongolian.</t>
+          <t>Marco Polo used Persian langage , not Chinese or Mongolian .</t>
         </is>
       </c>
     </row>
@@ -15268,24 +15268,24 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>b_1236</t>
+          <t>a_1236</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Futhermore, a tour guide will also provide safety and security for the travel, since they already know the do's and don'ts on the tour.</t>
+          <t>Futhermore , a tour guide will also provide safety and security for the travel , since they already know the do 's and don'ts on the tour .</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>a_1237</t>
+          <t>b_1237</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>This arguement is not only true now , it has been for ages , i want to talk about the live example of Sir .</t>
+          <t>This arguement is not only true now, it has been for ages, i want to talk about the live example of Sir.</t>
         </is>
       </c>
     </row>
@@ -15304,24 +15304,24 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>a_1239</t>
+          <t>b_1239</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>-Learn !</t>
+          <t>-Learn!</t>
         </is>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>b_1240</t>
+          <t>a_1240</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>There are very successful politicians that never tried somthing new.</t>
+          <t>There are very successful politicians that never tried somthing new .</t>
         </is>
       </c>
     </row>
@@ -15340,12 +15340,12 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>b_1242</t>
+          <t>a_1242</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Furethermore, the professor denies the reading passage in which it states that treasure does not exist and it is just fiction.</t>
+          <t>Furethermore , the professor denies the reading passage in which it states that treasure does not exist and it is just fiction .</t>
         </is>
       </c>
     </row>
@@ -15388,12 +15388,12 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>b_1246</t>
+          <t>a_1246</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Producing vehicles that are more fuel efficint will damage roads, and that will cost a lot to repair.</t>
+          <t>Producing vehicles that are more fuel efficint will damage roads , and that will cost a lot to repair .</t>
         </is>
       </c>
     </row>
@@ -15412,36 +15412,36 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>b_1248</t>
+          <t>a_1248</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>This creates people to pier pressure.</t>
+          <t>This creates people to pier pressure .</t>
         </is>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>b_1249</t>
+          <t>a_1249</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>For example, last monthe i bought a skin product; actually, i bought the product because the advertising got my attention.</t>
+          <t>For example , last monthe i bought a skin product ; actually , i bought the product because the advertising got my attention .</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>b_1250</t>
+          <t>a_1250</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Newer vehicles could fly in the sky, then we needn't worry about trafic jams.</t>
+          <t>Newer vehicles could fly in the sky , then we need n't worry about trafic jams .</t>
         </is>
       </c>
     </row>
@@ -15460,12 +15460,12 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>a_1252</t>
+          <t>b_1252</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>They have a broader spectrum of ideas that can be developed into competences during their student life .</t>
+          <t>They have a broader spectrum of ideas that can be developed into competences during their student life.</t>
         </is>
       </c>
     </row>
@@ -15544,24 +15544,24 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>b_1259</t>
+          <t>a_1259</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Facts are learned through experinces.</t>
+          <t>Facts are learned through experinces .</t>
         </is>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>b_1260</t>
+          <t>a_1260</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>The bass is not only a predetor for the menhaden, so if people catch more bass, the popular of other fish will also grow.</t>
+          <t>The bass is not only a predetor for the menhaden , so if people catch more bass , the popular of other fish will also grow .</t>
         </is>
       </c>
     </row>
@@ -15580,12 +15580,12 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>b_1262</t>
+          <t>a_1262</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Government uses that money for public uses and safty.</t>
+          <t>Government uses that money for public uses and safty .</t>
         </is>
       </c>
     </row>
@@ -15604,12 +15604,12 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>b_1264</t>
+          <t>a_1264</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>he has a lot of money and name but no family life.</t>
+          <t>he has a lot of money and name but no family life .</t>
         </is>
       </c>
     </row>
@@ -15664,24 +15664,24 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>b_1269</t>
+          <t>a_1269</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>It usually makes them more postive about doing it.</t>
+          <t>It usually makes them more postive about doing it .</t>
         </is>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>b_1270</t>
+          <t>a_1270</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>both advertisements say that the toothpaste will make your teeth briliant and brighter.</t>
+          <t>both advertisements say that the toothpaste will make your teeth briliant and brighter .</t>
         </is>
       </c>
     </row>
@@ -15700,36 +15700,36 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>b_1272</t>
+          <t>a_1272</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>First of all, old houses are not necessarily suited to the needs of mordern residents.</t>
+          <t>First of all , old houses are not necessarily suited to the needs of mordern residents .</t>
         </is>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>a_1273</t>
+          <t>b_1273</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>The Actual market requires more specific knowledge that broad knowledge .</t>
+          <t>The Actual market requires more specific knowledge that broad knowledge.</t>
         </is>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>b_1274</t>
+          <t>a_1274</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Only by braking out of your normal life can you discover new perspectives in your job and private life.</t>
+          <t>Only by braking out of your normal life can you discover new perspectives in your job and private life .</t>
         </is>
       </c>
     </row>
@@ -15808,24 +15808,24 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>b_1281</t>
+          <t>a_1281</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Younger people are still trying to obtain the experince that olde people have.</t>
+          <t>Younger people are still trying to obtain the experince that olde people have .</t>
         </is>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>b_1282</t>
+          <t>a_1282</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>They need the cars for many things such as trasportation, entertainment and business.</t>
+          <t>They need the cars for many things such as trasportation , entertainment and business .</t>
         </is>
       </c>
     </row>
@@ -15844,12 +15844,12 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>a_1284</t>
+          <t>b_1284</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>While reaults from both experiences are same , the method and the time that brings a result is not same .</t>
+          <t>While reaults from both experiences are same, the method and the time that brings a result is not same.</t>
         </is>
       </c>
     </row>
@@ -15868,36 +15868,36 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>b_1286</t>
+          <t>a_1286</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>In such a situaction there is no other way.</t>
+          <t>In such a situaction there is no other way .</t>
         </is>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>b_1287</t>
+          <t>a_1287</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Even the magnitides on Mars are no evidence of life on Mars.</t>
+          <t>Even the magnitides on Mars are no evidence of life on Mars .</t>
         </is>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>a_1288</t>
+          <t>b_1288</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>in writting we are nearly unable to show the felings of people , but in the action on TV we can understand more than from the book .</t>
+          <t>in writting we are nearly unable to show the felings of people, but in the action on TV we can understand more than from the book.</t>
         </is>
       </c>
     </row>
@@ -15940,12 +15940,12 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>b_1292</t>
+          <t>a_1292</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>if they want to achieve something, they will try for another untill they know how it works and what is useful about it.</t>
+          <t>if they want to achieve something , they will try for another untill they know how it works and what is useful about it .</t>
         </is>
       </c>
     </row>
@@ -15976,36 +15976,36 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>a_1295</t>
+          <t>b_1295</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>In my opinion . if someone thinks one is more important than other , why not focuse on one ?</t>
+          <t>In my opinion. if someone thinks one is more important than other, why not focuse on one?</t>
         </is>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>b_1296</t>
+          <t>a_1296</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>And people feel more arkward when it comes to their ears, that this is something going on as a current event.</t>
+          <t>And people feel more arkward when it comes to their ears , that this is something going on as a current event .</t>
         </is>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>b_1297</t>
+          <t>a_1297</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>However, I woud prefer traveling by myself with a good preparation filled with joy.</t>
+          <t>However , I woud prefer traveling by myself with a good preparation filled with joy .</t>
         </is>
       </c>
     </row>
@@ -16060,24 +16060,24 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>b_1302</t>
+          <t>a_1302</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>The First effect is grobal warming.</t>
+          <t>The First effect is grobal warming .</t>
         </is>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>b_1303</t>
+          <t>a_1303</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>So, Ho Chi Minh city will develope.</t>
+          <t>So , Ho Chi Minh city will develope .</t>
         </is>
       </c>
     </row>
@@ -16180,12 +16180,12 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>a_1312</t>
+          <t>b_1312</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>In my past experiences , there are some lectures which are completely baed on facts , and the chance for me to apply them is rare .</t>
+          <t>In my past experiences, there are some lectures which are completely baed on facts, and the chance for me to apply them is rare.</t>
         </is>
       </c>
     </row>
@@ -16204,12 +16204,12 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>b_1314</t>
+          <t>a_1314</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Firstly, I think that communities are equal to human rerationship.</t>
+          <t>Firstly , I think that communities are equal to human rerationship .</t>
         </is>
       </c>
     </row>
@@ -16228,36 +16228,36 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>a_1316</t>
+          <t>b_1316</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>When you understand the concepts and ideas it is up to you to prove them , and see if they are really what you have been told ; i think this is the main reason why students prefere facts rather than just understanding ideas and concepts .</t>
+          <t>When you understand the concepts and ideas it is up to you to prove them, and see if they are really what you have been told; i think this is the main reason why students prefere facts rather than just understanding ideas and concepts.</t>
         </is>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>a_1317</t>
+          <t>b_1317</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>for example , if you are attempting to study arts and scienses and get equalifications in both , you are an extraordinary creation .</t>
+          <t>for example, if you are attempting to study arts and scienses and get equalifications in both, you are an extraordinary creation.</t>
         </is>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>a_1318</t>
+          <t>b_1318</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>So in this field , it is very important to understand all concepts and idease , which they gave us to use to solve problems .</t>
+          <t>So in this field, it is very important to understand all concepts and idease, which they gave us to use to solve problems.</t>
         </is>
       </c>
     </row>
@@ -16276,48 +16276,48 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>b_1320</t>
+          <t>a_1320</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>As we all know, when we were out, something unexpected would happen, such as disease, accident or something else.</t>
+          <t>As we all know , when we were out , something unexpected would happen , such as disease , accident or something else .</t>
         </is>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>b_1321</t>
+          <t>a_1321</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>Third, the professor agrees that the the gas prices in the United States are cheep, and they should rais them to safe the enviroment and people's health.</t>
+          <t>Third , the professor agrees that the the gas prices in the United States are cheep , and they should rais them to safe the enviroment and people 's health .</t>
         </is>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>b_1322</t>
+          <t>a_1322</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>But they do things in a different maner than others which gives them success.</t>
+          <t>But they do things in a different maner than others which gives them success .</t>
         </is>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>b_1323</t>
+          <t>a_1323</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>I think it's harder for successful people to risk something that thay coluld lose much more then others.</t>
+          <t>I think it 's harder for successful people to risk something that thay coluld lose much more then others .</t>
         </is>
       </c>
     </row>
@@ -16348,12 +16348,12 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>b_1326</t>
+          <t>a_1326</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>it transmits the hebitats from Eastern Europe to different places in the world.</t>
+          <t>it transmits the hebitats from Eastern Europe to different places in the world .</t>
         </is>
       </c>
     </row>
@@ -16384,12 +16384,12 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>b_1329</t>
+          <t>a_1329</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>So, some people use car only by moving somewher.</t>
+          <t>So , some people use car only by moving somewher .</t>
         </is>
       </c>
     </row>
@@ -16468,24 +16468,24 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>b_1336</t>
+          <t>a_1336</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>First, the advertissment makes me to buy something.</t>
+          <t>First , the advertissment makes me to buy something .</t>
         </is>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>b_1337</t>
+          <t>a_1337</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>In my opinion, the need for community service and volunteerism arises in the absence of adequate resources or when someone is not fulfilling their responsibilities.</t>
+          <t>In my opinion , the need for community service and volunteerism arises in the absence of adequate resources or when someone is not fulfilling their responsibilities .</t>
         </is>
       </c>
     </row>
@@ -16516,12 +16516,12 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>a_1340</t>
+          <t>b_1340</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>if the knowledge is in all areas , it gives an added advatage to your knowledge level .</t>
+          <t>if the knowledge is in all areas, it gives an added advatage to your knowledge level.</t>
         </is>
       </c>
     </row>
@@ -16552,12 +16552,12 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>b_1343</t>
+          <t>a_1343</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>They explain the specific points useing examples about the dinosaur's behavior and physical features.</t>
+          <t>They explain the specific points useing examples about the dinosaur 's behavior and physical features .</t>
         </is>
       </c>
     </row>
@@ -16588,12 +16588,12 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>b_1346</t>
+          <t>a_1346</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>We don't usually study these subjects very deaply.</t>
+          <t>We do n't usually study these subjects very deaply .</t>
         </is>
       </c>
     </row>
@@ -16636,24 +16636,24 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>b_1350</t>
+          <t>a_1350</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>he usually brings a book and asks something to someone; he wants to understand the bood.</t>
+          <t>he usually brings a book and asks something to someone ; he wants to understand the bood .</t>
         </is>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>b_1351</t>
+          <t>a_1351</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Recently scientists have been working on a new generation lie detector that can perform brain-scanning to find out if a person is telling the truth.</t>
+          <t>Recently scientists have been working on a new generation lie detector that can perform brain- scanning to find out if a person is telling the truth .</t>
         </is>
       </c>
     </row>
@@ -16684,12 +16684,12 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>b_1354</t>
+          <t>a_1354</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>I do not want to go the Effel Tower in Paris or The Statue of Liberty in New York when I travel because they are too famous, and I already heard and saw about them.</t>
+          <t>I do not want to go the Effel Tower in Paris or The Statue of Liberty in New York when I travel because they are too famous , and I already heard and saw about them .</t>
         </is>
       </c>
     </row>
@@ -16708,24 +16708,24 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>b_1356</t>
+          <t>a_1356</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Lastly, business owners thought factories would help reduce their overrall business expenses by reducing their transportation costs.</t>
+          <t>Lastly , business owners thought factories would help reduce their overrall business expenses by reducing their transportation costs .</t>
         </is>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>b_1357</t>
+          <t>a_1357</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>This person guides you through paradise and takes you to wonderfull places.</t>
+          <t>This person guides you through paradise and takes you to wonderfull places .</t>
         </is>
       </c>
     </row>
@@ -16756,12 +16756,12 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>b_1360</t>
+          <t>a_1360</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Nowadays, drinking soda became an adiction to most people.</t>
+          <t>Nowadays , drinking soda became an adiction to most people .</t>
         </is>
       </c>
     </row>
@@ -16816,12 +16816,12 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>b_1365</t>
+          <t>a_1365</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Altough life is never easy, age doesn't determine when you can be protected or prevented from bad things.</t>
+          <t>Altough life is never easy , age does n't determine when you can be protected or prevented from bad things .</t>
         </is>
       </c>
     </row>
@@ -16852,12 +16852,12 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>b_1368</t>
+          <t>a_1368</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>For exemple, you were working as a broadcaster but in the office and city where you are working.</t>
+          <t>For exemple , you were working as a broadcaster but in the office and city where you are working .</t>
         </is>
       </c>
     </row>
@@ -16888,12 +16888,12 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>b_1371</t>
+          <t>a_1371</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>When facing such challenges, only those who are perserverant, determined and always strive until the last minute despite the risks can finally be successful.</t>
+          <t>When facing such challenges , only those who are perserverant , determined and always strive until the last minute despite the risks can finally be successful .</t>
         </is>
       </c>
     </row>
@@ -16912,36 +16912,36 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>b_1373</t>
+          <t>a_1373</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>In old times, familes tended to live in the same place for ages.</t>
+          <t>In old times , familes tended to live in the same place for ages .</t>
         </is>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>b_1374</t>
+          <t>a_1374</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>I think that young peopie are not able to think as deeply about things than older people.</t>
+          <t>I think that young peopie are not able to think as deeply about things than older people .</t>
         </is>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>b_1375</t>
+          <t>a_1375</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Thus, most of the inhabitants in the rural ereas are the old ones.</t>
+          <t>Thus , most of the inhabitants in the rural ereas are the old ones .</t>
         </is>
       </c>
     </row>
@@ -16996,24 +16996,24 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>b_1380</t>
+          <t>a_1380</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>He may fell afraid or terrible when the same thing happens to him.</t>
+          <t>He may fell afraid or terrible when the same thing happens to him .</t>
         </is>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>b_1381</t>
+          <t>a_1381</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>When older people think like that, it causes a big problem for yong people.</t>
+          <t>When older people think like that , it causes a big problem for yong people .</t>
         </is>
       </c>
     </row>
@@ -17032,24 +17032,24 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>b_1383</t>
+          <t>a_1383</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>It will eat insects or animals that will cause damage to places so that it can avoid loses due to repairing things.</t>
+          <t>It will eat insects or animals that will cause damage to places so that it can avoid loses due to repairing things .</t>
         </is>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>b_1384</t>
+          <t>a_1384</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Afther that they have to find a well-paid job.</t>
+          <t>Afther that they have to find a well-paid job .</t>
         </is>
       </c>
     </row>
@@ -17080,12 +17080,12 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>b_1387</t>
+          <t>a_1387</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>The cost of using the undergroud is very cheap in some countries such as France.</t>
+          <t>The cost of using the undergroud is very cheap in some countries such as France .</t>
         </is>
       </c>
     </row>
@@ -17212,12 +17212,12 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>b_1398</t>
+          <t>a_1398</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>if it does, you will only get some misunderstood idea about that acticle but not the original one.</t>
+          <t>if it does , you will only get some misunderstood idea about that acticle but not the original one .</t>
         </is>
       </c>
     </row>
@@ -17284,72 +17284,72 @@
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>b_1404</t>
+          <t>a_1404</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>No other transportation concept has been as successful as the car, not only because of goog streets and highway systems throughout the United States and Europe, but also because of the fact that people love their cars.</t>
+          <t>No other transportation concept has been as successful as the car , not only because of goog streets and highway systems throughout the United States and Europe , but also because of the fact that people love their cars .</t>
         </is>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>b_1405</t>
+          <t>a_1405</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>That's why he is a legend in these days and people repect him.</t>
+          <t>That 's why he is a legend in these days and people repect him .</t>
         </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>b_1406</t>
+          <t>a_1406</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>On the other hand, when I was a freshman in college, I could concentrate on my favorit subjects.</t>
+          <t>On the other hand , when I was a freshman in college , I could concentrate on my favorit subjects .</t>
         </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>b_1407</t>
+          <t>a_1407</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>When you're making a trip with a tour guide, you already have everything settled, from the time you depart to the time you arrive.</t>
+          <t>When you 're making a trip with a tour guide , you already have everything settled , from the time you depart to the time you arrive .</t>
         </is>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>b_1408</t>
+          <t>a_1408</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>People tend to choose other media, which is why litterature is in danger.</t>
+          <t>People tend to choose other media , which is why litterature is in danger .</t>
         </is>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>b_1409</t>
+          <t>a_1409</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>I am pleased to know intelligent peple and learn about things that I don't know.</t>
+          <t>I am pleased to know intelligent peple and learn about things that I do n't know .</t>
         </is>
       </c>
     </row>
@@ -17368,12 +17368,12 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>b_1411</t>
+          <t>a_1411</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t>A person with broad knowlege will help him renovate.</t>
+          <t>A person with broad knowlege will help him renovate .</t>
         </is>
       </c>
     </row>
@@ -17392,12 +17392,12 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>b_1413</t>
+          <t>a_1413</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>Firstly, the striped bass consume a large quantitiy of menhaden; secondly, this fish is a source of protein for farm animals; and finally, the fishing industry provides jobs for some people in Virginia.</t>
+          <t>Firstly , the striped bass consume a large quantitiy of menhaden ; secondly , this fish is a source of protein for farm animals ; and finally , the fishing industry provides jobs for some people in Virginia .</t>
         </is>
       </c>
     </row>
@@ -17416,12 +17416,12 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>b_1415</t>
+          <t>a_1415</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>For example, if the city says that 8 am -- 9 am is the busiest time, than workers would argue that they should drive a bit later.</t>
+          <t>For example , if the city says that 8 am -- 9 am is the busiest time , than workers would argue that they should drive a bit later .</t>
         </is>
       </c>
     </row>
@@ -17440,36 +17440,36 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>b_1417</t>
+          <t>a_1417</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>In malysia, there are a lot of cars.</t>
+          <t>In malysia , there are a lot of cars .</t>
         </is>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>b_1418</t>
+          <t>a_1418</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>they are free to do all sorts of things, even those that are cinsidered dangerous or irresponsible, such as bungee jumping.</t>
+          <t>they are free to do all sorts of things , even those that are cinsidered dangerous or irresponsible , such as bungee jumping .</t>
         </is>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>b_1419</t>
+          <t>a_1419</t>
         </is>
       </c>
       <c r="B1420" t="inlineStr">
         <is>
-          <t>I think most people would like that in a busy world, but I don't thing it will happen the next twenty years.</t>
+          <t>I think most people would like that in a busy world , but I do n't thing it will happen the next twenty years .</t>
         </is>
       </c>
     </row>
@@ -17488,48 +17488,48 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>b_1421</t>
+          <t>a_1421</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>New kinds of vehicles will be invented with new technology than doesn't exist today.</t>
+          <t>New kinds of vehicles will be invented with new technology than does n't exist today .</t>
         </is>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>b_1422</t>
+          <t>a_1422</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
         <is>
-          <t>This would have definately required him to take an immense amount of time away from his work, and he stands as a perfect example with whom the youngsters of today relate.</t>
+          <t>This would have definately required him to take an immense amount of time away from his work , and he stands as a perfect example with whom the youngsters of today relate .</t>
         </is>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>a_1423</t>
+          <t>b_1423</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>I think it is kind of ridicurous , but we have to do as the tour guide said .</t>
+          <t>I think it is kind of ridicurous, but we have to do as the tour guide said.</t>
         </is>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="inlineStr">
         <is>
-          <t>a_1424</t>
+          <t>b_1424</t>
         </is>
       </c>
       <c r="B1425" t="inlineStr">
         <is>
-          <t>An example that would make this categorization problemmatic is an architect .</t>
+          <t>An example that would make this categorization problemmatic is an architect.</t>
         </is>
       </c>
     </row>
@@ -17596,24 +17596,24 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>b_1430</t>
+          <t>a_1430</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>By the same token, people will learn many different skills by doing so many things, but they will just learn their appeal and not get any crutial information or wisdom from it.</t>
+          <t>By the same token , people will learn many different skills by doing so many things , but they will just learn their appeal and not get any crutial information or wisdom from it .</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>b_1431</t>
+          <t>a_1431</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>To some people, New experiences are a challenger and challenger are the reasons that some people continue living.</t>
+          <t>To some people , New experiences are a challenger and challenger are the reasons that some people continue living .</t>
         </is>
       </c>
     </row>
@@ -17656,12 +17656,12 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>b_1435</t>
+          <t>a_1435</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>Court cases are very common and a high number of desputed tickets are seen.</t>
+          <t>Court cases are very common and a high number of desputed tickets are seen .</t>
         </is>
       </c>
     </row>
@@ -17692,12 +17692,12 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>b_1438</t>
+          <t>a_1438</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>Unfortunately in most countries, public transport is not perfecty organised.</t>
+          <t>Unfortunately in most countries , public transport is not perfecty organised .</t>
         </is>
       </c>
     </row>
@@ -17716,12 +17716,12 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>a_1440</t>
+          <t>b_1440</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>This does n't mean that , because you take risks , you are going to succed .</t>
+          <t>This doesn't mean that, because you take risks, you are going to succed.</t>
         </is>
       </c>
     </row>
@@ -17776,24 +17776,24 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>b_1445</t>
+          <t>a_1445</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>you have to teach your child since they are born until they graw up.</t>
+          <t>you have to teach your child since they are born until they graw up .</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>b_1446</t>
+          <t>a_1446</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>For example, the subway in New York, bullet trains in Japan, underground tube trains in Singapore and the sky trains in Bangkok all travel at lightening speeds.</t>
+          <t>For example , the subway in New York , bullet trains in Japan , underground tube trains in Singapore and the sky trains in Bangkok all travel at lightening speeds .</t>
         </is>
       </c>
     </row>
@@ -17812,12 +17812,12 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>b_1448</t>
+          <t>a_1448</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Young people nowdays don't spend enough time helping their communities.</t>
+          <t>Young people nowdays do n't spend enough time helping their communities .</t>
         </is>
       </c>
     </row>
@@ -17860,12 +17860,12 @@
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>b_1452</t>
+          <t>a_1452</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>secondly, it is an unfair action because it will effect low-income Americans.</t>
+          <t>secondly , it is an unfair action because it will effect low-income Americans .</t>
         </is>
       </c>
     </row>
@@ -17908,36 +17908,36 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>b_1456</t>
+          <t>a_1456</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>It is worthy noting that not everybody will succeed when taking a risk, but that should not be enough to deteir anybody who wishes to take one.</t>
+          <t>It is worthy noting that not everybody will succeed when taking a risk , but that should not be enough to deteir anybody who wishes to take one .</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>b_1457</t>
+          <t>a_1457</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>apparently, I have a Japanese friend in Japen whose name is Tomo.</t>
+          <t>apparently , I have a Japanese friend in Japen whose name is Tomo .</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>b_1458</t>
+          <t>a_1458</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>when they do some work, they think they have to fine work in time.</t>
+          <t>when they do some work , they think they have to fine work in time .</t>
         </is>
       </c>
     </row>
@@ -17956,24 +17956,24 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>b_1460</t>
+          <t>a_1460</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Although there are some rules for protecting young people, such as restricting the ages that can view movies and previewing the bad aspects of programs before they start, it is just made for little kids, not young peole like high school or university students.</t>
+          <t>Although there are some rules for protecting young people , such as restricting the ages that can view movies and previewing the bad aspects of programs before they start , it is just made for little kids , not young peole like high school or university students .</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>b_1461</t>
+          <t>a_1461</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>For the Greek philosophers Plato and Aristotle, the capacity for understanding ideas and concepts, or intelligence, is the main ability of the human soul, which is the part of ourselves that makes us the being we actually are.</t>
+          <t>For the Greek philosophers Plato and Aristotle , the capacity for understanding ideas and concepts , or intelligence , is the main ability of the human soul , which is the part of ourselves that makes us the being we actually are .</t>
         </is>
       </c>
     </row>
@@ -17992,24 +17992,24 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>b_1463</t>
+          <t>a_1463</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>This demonstrates the undeniable fact that it is bebeficial to have differnt experiences.</t>
+          <t>This demonstrates the undeniable fact that it is bebeficial to have differnt experiences .</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>b_1464</t>
+          <t>a_1464</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>The government is rising the tax on gasoline.</t>
+          <t>The government is rising the tax on gasoline .</t>
         </is>
       </c>
     </row>
@@ -18040,12 +18040,12 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>b_1467</t>
+          <t>a_1467</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Second, the rouds cannot be damged because, with the rising tax, there will be many fewer cars.</t>
+          <t>Second , the rouds can not be damged because , with the rising tax , there will be many fewer cars .</t>
         </is>
       </c>
     </row>
@@ -18064,12 +18064,12 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>b_1469</t>
+          <t>a_1469</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>In America, a lot of families have more than one car and, futhermore, some of them have three or four.</t>
+          <t>In America , a lot of families have more than one car and , futhermore , some of them have three or four .</t>
         </is>
       </c>
     </row>
@@ -18100,36 +18100,36 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>a_1472</t>
+          <t>b_1472</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>Secondly , It needs to experiance .</t>
+          <t>Secondly, It needs to experiance.</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>b_1473</t>
+          <t>a_1473</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Therefore, the french revolution happend in the middle Ages in Europe due to those reasons.''</t>
+          <t>Therefore , the french revolution happend in the middle Ages in Europe due to those reasons . ''</t>
         </is>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>b_1474</t>
+          <t>a_1474</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>This will help creat a relationship of brotherhood.</t>
+          <t>This will help creat a relationship of brotherhood .</t>
         </is>
       </c>
     </row>
@@ -18172,24 +18172,24 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>b_1478</t>
+          <t>a_1478</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Scond, Menzied points out that chinese ships in the 1400s used very distinctive anchors that were round stones with a hole in the middle.</t>
+          <t>Scond , Menzied points out that chinese ships in the 1400s used very distinctive anchors that were round stones with a hole in the middle .</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>b_1479</t>
+          <t>a_1479</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>In a group trip, we are forced to follow the goup's time schedules.</t>
+          <t>In a group trip , we are forced to follow the goup 's time schedules .</t>
         </is>
       </c>
     </row>
@@ -18208,24 +18208,24 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>a_1481</t>
+          <t>b_1481</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>I can remember that from a alecture I iattended .</t>
+          <t>I can remember that from a alecture I iattended.</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>b_1482</t>
+          <t>a_1482</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Even when everthing is tough, when there is life there is hope.</t>
+          <t>Even when everthing is tough , when there is life there is hope .</t>
         </is>
       </c>
     </row>
@@ -18256,12 +18256,12 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>b_1485</t>
+          <t>a_1485</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>This implies that there can be instances were no such overstating takes place at all.</t>
+          <t>This implies that there can be instances were no such overstating takes place at all .</t>
         </is>
       </c>
     </row>
@@ -18280,12 +18280,12 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>b_1487</t>
+          <t>a_1487</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Another thing is that advertisements always show and indicate prices on commdities, alowing consumers to budget well in order to be able to buy them.</t>
+          <t>Another thing is that advertisements always show and indicate prices on commdities , alowing consumers to budget well in order to be able to buy them .</t>
         </is>
       </c>
     </row>
@@ -18316,36 +18316,36 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>b_1490</t>
+          <t>a_1490</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Advertising can be used badly not only by corporations but also by governments, as for exemple by the nazi regime.</t>
+          <t>Advertising can be used badly not only by corporations but also by governments , as for exemple by the nazi regime .</t>
         </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>b_1491</t>
+          <t>a_1491</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Such peole impressed others through their strong well and devotion to duty.</t>
+          <t>Such peole impressed others through their strong well and devotion to duty .</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>b_1492</t>
+          <t>a_1492</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>For example, if the old person does not hear properly, then the young ones right from the days of their cihildhood think of inventing something that can help the older people hear properly.</t>
+          <t>For example , if the old person does not hear properly , then the young ones right from the days of their cihildhood think of inventing something that can help the older people hear properly .</t>
         </is>
       </c>
     </row>
@@ -18376,24 +18376,24 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>b_1495</t>
+          <t>a_1495</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>Adults are content to send their chirdren to school to have contact with these different kinds of classes.</t>
+          <t>Adults are content to send their chirdren to school to have contact with these different kinds of classes .</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>b_1496</t>
+          <t>a_1496</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>However, I want to go to the U.S.A so that I can study and life in my dream country, and I want to have a family so that I am never not alony.</t>
+          <t>However , I want to go to the U.S.A so that I can study and life in my dream country , and I want to have a family so that I am never not alony .</t>
         </is>
       </c>
     </row>
@@ -18412,12 +18412,12 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>b_1498</t>
+          <t>a_1498</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Because of this, I prefer studying concepts and ideas more thad learnig facts.</t>
+          <t>Because of this , I prefer studying concepts and ideas more thad learnig facts .</t>
         </is>
       </c>
     </row>
@@ -18436,12 +18436,12 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>b_1500</t>
+          <t>a_1500</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>we are watching movie to earn something.</t>
+          <t>we are watching movie to earn something .</t>
         </is>
       </c>
     </row>
@@ -18460,24 +18460,24 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>b_1502</t>
+          <t>a_1502</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>It has some problems that can effect humens.</t>
+          <t>It has some problems that can effect humens .</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>b_1503</t>
+          <t>a_1503</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>It mentions that now it has reached some oarts of North America.</t>
+          <t>It mentions that now it has reached some oarts of North America .</t>
         </is>
       </c>
     </row>
@@ -18604,36 +18604,36 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>b_1514</t>
+          <t>a_1514</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>For me there are few very friends or cklassmates that would be better friends.</t>
+          <t>For me there are few very friends or cklassmates that would be better friends .</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>b_1515</t>
+          <t>a_1515</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>Attendence does not mean that teenegers are fully participating in class.</t>
+          <t>Attendence does not mean that teenegers are fully participating in class .</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>b_1516</t>
+          <t>a_1516</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>the company should not knowa about one's employment,</t>
+          <t>the company should not knowa about one 's employment ,</t>
         </is>
       </c>
     </row>
@@ -18712,36 +18712,36 @@
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>b_1523</t>
+          <t>a_1523</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>Because it rains more, the plants grow well and so the Puebo can make full use of them.</t>
+          <t>Because it rains more , the plants grow well and so the Puebo can make full use of them .</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>a_1524</t>
+          <t>b_1524</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>Additionaly , popular movies stars or famous people in advertisements attract people .</t>
+          <t>Additionaly, popular movies stars or famous people in advertisements attract people.</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>b_1525</t>
+          <t>a_1525</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>Let us think of music as a metaphor for all areas of knowledge, and the different instruments as metaphors for all the seperate disciplines.</t>
+          <t>Let us think of music as a metaphor for all areas of knowledge , and the different instruments as metaphors for all the seperate disciplines .</t>
         </is>
       </c>
     </row>
@@ -18760,60 +18760,60 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>b_1527</t>
+          <t>a_1527</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>Many people have many reasons, like to travel abroad or to have diffrent experiences, but their purposes all have something in common.</t>
+          <t>Many people have many reasons , like to travel abroad or to have diffrent experiences , but their purposes all have something in common .</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>b_1528</t>
+          <t>a_1528</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>We alwayse joke around or do something stupid.</t>
+          <t>We alwayse joke around or do something stupid .</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>b_1529</t>
+          <t>a_1529</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Last but not least, zenra mussels are likely to cause a decline in the overall fish population in habitats where they become dominant.</t>
+          <t>Last but not least , zenra mussels are likely to cause a decline in the overall fish population in habitats where they become dominant .</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>b_1530</t>
+          <t>a_1530</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Although, people have a great capacity to gain and learn knowlege, so it is easy to gain general knowledge about everything.</t>
+          <t>Although , people have a great capacity to gain and learn knowlege , so it is easy to gain general knowledge about everything .</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>b_1531</t>
+          <t>a_1531</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>As I see it, there will be a lot of research done in the future to find such alternitive energies, which will also be environmentally friendly, as well as cheaper.</t>
+          <t>As I see it , there will be a lot of research done in the future to find such alternitive energies , which will also be environmentally friendly , as well as cheaper .</t>
         </is>
       </c>
     </row>
@@ -18832,48 +18832,48 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>b_1533</t>
+          <t>a_1533</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>bacause I have broad knowledge.</t>
+          <t>bacause I have broad knowledge .</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>b_1534</t>
+          <t>a_1534</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>If everone in the city uses their own cars, the city will be seriously polluted by the smoke.</t>
+          <t>If everone in the city uses their own cars , the city will be seriously polluted by the smoke .</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>b_1535</t>
+          <t>a_1535</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>It is instead of giving strong medicins to them.</t>
+          <t>It is instead of giving strong medicins to them .</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>a_1536</t>
+          <t>b_1536</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>Fourtunately , their topic becomes more clear by using this amount of concepts provided by the books .</t>
+          <t>Fourtunately, their topic becomes more clear by using this amount of concepts provided by the books.</t>
         </is>
       </c>
     </row>
@@ -18916,24 +18916,24 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>b_1540</t>
+          <t>a_1540</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>My personal perception is that such behaviour is damaging to a young person's personality, since it promotes uniformity and conformity, rather than creativity and innovation.</t>
+          <t>My personal perception is that such behaviour is damaging to a young person 's personality , since it promotes uniformity and conformity , rather than creativity and innovation .</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>b_1541</t>
+          <t>a_1541</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>Every house nowdays has a computer, mobile, etc. and this is the way today's man wants to live.</t>
+          <t>Every house nowdays has a computer , mobile , etc . and this is the way today 's man wants to live .</t>
         </is>
       </c>
     </row>
@@ -18976,12 +18976,12 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>b_1545</t>
+          <t>a_1545</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>In contradiction to this, the professor said that the dicease study was not designed very well.</t>
+          <t>In contradiction to this , the professor said that the dicease study was not designed very well .</t>
         </is>
       </c>
     </row>
@@ -19036,48 +19036,48 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>b_1550</t>
+          <t>a_1550</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>This always challenges consumers to buy a perticular commodity in order to satisfy their needs and wants in modern days.</t>
+          <t>This always challenges consumers to buy a perticular commodity in order to satisfy their needs and wants in modern days .</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>a_1551</t>
+          <t>b_1551</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>For exemple , it will be easier for people to concentrate subjects such as geology , if they have a broad knowledge of many fields , rather than to try to concentrate solely on geology after having studied litterature .</t>
+          <t>For exemple, it will be easier for people to concentrate subjects such as geology, if they have a broad knowledge of many fields, rather than to try to concentrate solely on geology after having studied litterature.</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>b_1552</t>
+          <t>a_1552</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>After an official training course, we helped the patients to bath, talked with the elder people who lived alone, and helped the organization to hold activities during special occasions like mother's day.</t>
+          <t>After an official training course , we helped the patients to bath , talked with the elder people who lived alone , and helped the organization to hold activities during special occasions like mother 's day .</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>b_1553</t>
+          <t>a_1553</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>You can buy a vavilla cake in a fancy store and another vanilla cake in a regular store.</t>
+          <t>You can buy a vavilla cake in a fancy store and another vanilla cake in a regular store .</t>
         </is>
       </c>
     </row>
@@ -19144,24 +19144,24 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>b_1559</t>
+          <t>a_1559</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>First, we can protect our enviroment by saving oil and gas.</t>
+          <t>First , we can protect our enviroment by saving oil and gas .</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>a_1560</t>
+          <t>b_1560</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>And I completely disagree with what the auther wants to say .</t>
+          <t>And I completely disagree with what the auther wants to say.</t>
         </is>
       </c>
     </row>
@@ -19228,24 +19228,24 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>b_1566</t>
+          <t>a_1566</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>It is not bad if you know it; it means that you are intelligent but a doctor has to be extremely good at safing and helping sick people.</t>
+          <t>It is not bad if you know it ; it means that you are intelligent but a doctor has to be extremely good at safing and helping sick people .</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>a_1567</t>
+          <t>b_1567</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>If , however , the student only puts down conepts , either their own or someone else 's , which can be mistakes , that will make the professor wonder whether the student actualy did what was asked for by the assigment .</t>
+          <t>If, however, the student only puts down conepts, either their own or someone else's, which can be mistakes, that will make the professor wonder whether the student actualy did what was asked for by the assigment.</t>
         </is>
       </c>
     </row>
@@ -19312,12 +19312,12 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>b_1573</t>
+          <t>a_1573</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>In my opinion, i agee with the statement that most advertisements make products seem much better than they really are.</t>
+          <t>In my opinion , i agee with the statement that most advertisements make products seem much better than they really are .</t>
         </is>
       </c>
     </row>
@@ -19348,12 +19348,12 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>b_1576</t>
+          <t>a_1576</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>However, people who did not join the event, felt like winners because they forgot the event ealy on.</t>
+          <t>However , people who did not join the event , felt like winners because they forgot the event ealy on .</t>
         </is>
       </c>
     </row>
@@ -19372,24 +19372,24 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>b_1578</t>
+          <t>a_1578</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>Buses, subways, and even planes are means of travelling that can be used in a lot of areas.</t>
+          <t>Buses , subways , and even planes are means of travelling that can be used in a lot of areas .</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>b_1579</t>
+          <t>a_1579</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>Also, it is more comfotable than moving.</t>
+          <t>Also , it is more comfotable than moving .</t>
         </is>
       </c>
     </row>
@@ -19432,12 +19432,12 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>b_1583</t>
+          <t>a_1583</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>This fast-paced economic growth, which can also be observed in a large number of developing nations, has brought about an increase in per capita income and imroved lifestyles for individuals.</t>
+          <t>This fast-paced economic growth , which can also be observed in a large number of developing nations , has brought about an increase in per capita income and imroved lifestyles for individuals .</t>
         </is>
       </c>
     </row>
@@ -19480,24 +19480,24 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>a_1587</t>
+          <t>b_1587</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>for example , a researcher who wants to be successfull must take risks .</t>
+          <t>for example, a researcher who wants to be successfull must take risks.</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>b_1588</t>
+          <t>a_1588</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>The legs of all modern endotherms are undernearth their bodies.</t>
+          <t>The legs of all modern endotherms are undernearth their bodies .</t>
         </is>
       </c>
     </row>
@@ -19516,36 +19516,36 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>b_1590</t>
+          <t>a_1590</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>However, the lecturer says that only a vague location was described because antient people wanted to keep the location of the treasure secret.</t>
+          <t>However , the lecturer says that only a vague location was described because antient people wanted to keep the location of the treasure secret .</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>b_1591</t>
+          <t>a_1591</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>But, on the contrary, he argues thlat fluoride also has some disadvantages.</t>
+          <t>But , on the contrary , he argues thlat fluoride also has some disadvantages .</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>b_1592</t>
+          <t>a_1592</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>For exsample, I like to go to big cities like New York.</t>
+          <t>For exsample , I like to go to big cities like New York .</t>
         </is>
       </c>
     </row>
@@ -19564,24 +19564,24 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>a_1594</t>
+          <t>b_1594</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>Thus , we can easily remember this formura without spending exstra enersy and time. and it is still usefull to me .</t>
+          <t>Thus, we can easily remember this formura without spending exstra enersy and time. and it is still usefull to me.</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>b_1595</t>
+          <t>a_1595</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>Becaus we need food.</t>
+          <t>Becaus we need food .</t>
         </is>
       </c>
     </row>
@@ -19600,48 +19600,48 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>b_1597</t>
+          <t>a_1597</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>The personn takes the bike, goes where he wishes and then leaves it at the closest bus station.</t>
+          <t>The personn takes the bike , goes where he wishes and then leaves it at the closest bus station .</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>b_1598</t>
+          <t>a_1598</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>And I am going to anothere country.</t>
+          <t>And I am going to anothere country .</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>b_1599</t>
+          <t>a_1599</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>The youth today are aware of their responsibilites as citizens.</t>
+          <t>The youth today are aware of their responsibilites as citizens .</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>a_1600</t>
+          <t>b_1600</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>But I disegree with this opinion because often the advertisement does n't just speak about the functionality of the product but it promises other characteristics that do n't depend on it .</t>
+          <t>But I disegree with this opinion because often the advertisement doesn't just speak about the functionality of the product but it promises other characteristics that don't depend on it.</t>
         </is>
       </c>
     </row>
